--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -128,7 +128,28 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 11:35 AM</t>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 31 July, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -955,38 +976,104 @@
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>195.25</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>39</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>40</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>35</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>41</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>23</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>35</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>44</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>290.25</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>47</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>48</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1025,10 +1112,20 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -110,18 +110,36 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
@@ -149,7 +167,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 11:39 AM</t>
+    <t>Thursday, 31 July, 2025 11:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -961,18 +979,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -981,31 +999,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1014,66 +1032,132 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>45</v>
       </c>
-      <c t="s" r="Q14" s="12">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>46</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>39</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>290.25</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>46</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>47</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>48</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>39</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>316.25</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>53</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>54</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1122,10 +1206,20 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -167,7 +167,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 11:41 AM</t>
+    <t>Thursday, 31 July, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -122,15 +122,27 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -158,6 +170,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>معجون حلاقه 55555</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -167,7 +191,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 11:46 AM</t>
+    <t>Thursday, 31 July, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1039,7 +1063,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1049,14 +1073,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1065,14 +1089,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1082,14 +1106,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>44</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1105,7 +1129,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1115,49 +1139,115 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>54</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>39</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>55</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>316.25</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>52</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
-        <v>53</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
-        <v>54</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>23</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>39</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>58</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>341.25</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>60</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>61</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>62</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1216,10 +1306,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -110,6 +122,18 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -140,9 +164,6 @@
     <t>حبايه</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -191,7 +212,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 11:56 AM</t>
+    <t>Thursday, 31 July, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -948,7 +969,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -964,7 +985,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -974,14 +995,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -990,14 +1011,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1036,15 +1057,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>23</v>
@@ -1056,31 +1077,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1089,31 +1110,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1122,20 +1143,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1146,7 +1167,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1162,24 +1183,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1188,20 +1209,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1212,42 +1233,108 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>61</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>47</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>62</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>341.25</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>60</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>61</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
-        <v>62</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>23</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>47</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>519.13</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>67</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>68</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>69</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1316,10 +1403,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 11:58 AM</t>
+    <t>Thursday, 31 July, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -146,15 +146,27 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
     <t>15:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -206,13 +218,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 31 July, 2025 12:01 PM</t>
+    <t>Thursday, 31 July, 2025 12:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1150,7 +1156,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1160,11 +1166,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>23</v>
@@ -1176,7 +1182,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1193,14 +1199,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1209,14 +1215,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1226,14 +1232,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1266,7 +1272,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1282,7 +1288,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1292,49 +1298,82 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>519.13</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>67</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>68</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>23</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>47</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>48</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>554.13</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
         <v>69</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>70</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>71</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1413,10 +1452,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DERMOCALM TOPICAL LOTION 120 ML</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>47.8800</t>
   </si>
   <si>
@@ -182,6 +191,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -218,7 +236,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 12:27 PM</t>
+    <t>Thursday, 31 July, 2025 12:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -942,7 +960,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -975,7 +993,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1001,14 +1019,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1017,14 +1035,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1041,7 +1059,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1057,7 +1075,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1067,14 +1085,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1083,14 +1101,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1100,14 +1118,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1116,31 +1134,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1149,31 +1167,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1182,20 +1200,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1206,7 +1224,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1222,24 +1240,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1255,24 +1273,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1281,31 +1299,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1314,66 +1332,132 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>554.13</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>69</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>70</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>71</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>50</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>72</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>74</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>27</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>50</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>51</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>568.00999999999999</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>75</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>76</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>77</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1457,10 +1541,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -236,7 +236,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 12:32 PM</t>
+    <t>Thursday, 31 July, 2025 12:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DECANCIT S.R 20 F.C.TAB</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>21.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -143,6 +155,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -155,6 +176,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -236,7 +266,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 12:36 PM</t>
+    <t>Thursday, 31 July, 2025 12:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -993,7 +1023,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1019,14 +1049,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1035,14 +1065,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1052,14 +1082,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1075,7 +1105,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1085,14 +1115,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1101,14 +1131,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1125,7 +1155,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1158,7 +1188,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1174,24 +1204,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1200,31 +1230,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1233,31 +1263,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1266,20 +1296,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1290,7 +1320,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1306,24 +1336,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1332,20 +1362,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1356,7 +1386,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1372,24 +1402,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1398,66 +1428,165 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>568.00999999999999</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>77</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>60</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>78</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>75</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>76</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>77</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>81</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>60</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>82</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>84</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>31</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>60</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>61</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>718.19000000000005</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>85</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>86</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>87</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1551,10 +1680,25 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -266,7 +266,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 12:43 PM</t>
+    <t>Thursday, 31 July, 2025 12:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
   </si>
   <si>
@@ -227,7 +239,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -236,9 +251,6 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -266,7 +278,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 12:44 PM</t>
+    <t>Thursday, 31 July, 2025 12:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1188,7 +1200,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1204,7 +1216,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1214,14 +1226,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1230,14 +1242,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1270,7 +1282,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1280,11 +1292,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1296,31 +1308,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1329,20 +1341,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1369,21 +1381,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>31</v>
@@ -1395,28 +1407,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>31</v>
@@ -1428,31 +1440,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1461,31 +1473,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1507,7 +1519,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1518,7 +1530,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1534,59 +1546,92 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>718.19000000000005</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>85</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>86</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>87</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>88</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>31</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>64</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>65</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>732.19000000000005</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>89</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>90</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>91</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1695,10 +1740,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -77,12 +77,33 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECANCIT S.R 20 F.C.TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -104,9 +125,6 @@
     <t>DERMOCALM TOPICAL LOTION 120 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -197,6 +215,15 @@
     <t>67.5000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -224,6 +251,18 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>71:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -239,28 +278,49 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>معجون حلاقه 55555</t>
@@ -269,16 +329,10 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 12:45 PM</t>
+    <t>Thursday, 31 July, 2025 12:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1051,7 +1105,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1061,14 +1115,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1077,14 +1131,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1094,14 +1148,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1117,7 +1171,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1127,14 +1181,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1143,14 +1197,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1160,14 +1214,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1176,14 +1230,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1193,14 +1247,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1209,14 +1263,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1226,14 +1280,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1242,14 +1296,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1259,11 +1313,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1275,14 +1329,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1292,14 +1346,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1308,14 +1362,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1325,11 +1379,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1341,31 +1395,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1374,31 +1428,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1407,31 +1461,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1440,31 +1494,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1473,31 +1527,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1519,7 +1573,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1530,7 +1584,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1546,24 +1600,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1572,66 +1626,264 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>732.19000000000005</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>89</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>90</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>55</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>73</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>85</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>91</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>93</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>73</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>94</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>97</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>55</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>73</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>98</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>100</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>101</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>73</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>102</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>104</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>105</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>73</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>82</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>106</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>27</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>73</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>74</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>946.41499999999996</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>107</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>108</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>109</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1745,10 +1997,40 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -206,6 +206,21 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
@@ -230,9 +245,6 @@
     <t>44:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -332,7 +344,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 12:47 PM</t>
+    <t>Thursday, 31 July, 2025 1:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,21 +1447,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1461,14 +1473,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1478,14 +1490,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1494,20 +1506,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1540,7 +1552,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1573,7 +1585,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1600,21 +1612,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>27</v>
@@ -1626,7 +1638,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1639,18 +1651,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1659,7 +1671,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1672,15 +1684,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>44</v>
@@ -1692,31 +1704,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1725,20 +1737,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1749,7 +1761,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,20 +1770,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1804,15 +1816,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>27</v>
@@ -1824,66 +1836,99 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>946.41499999999996</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>107</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>108</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>109</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>110</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>27</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>67</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>78</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>973.41499999999996</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>111</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>112</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>113</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2027,10 +2072,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -344,7 +344,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 1:14 PM</t>
+    <t>Thursday, 31 July, 2025 1:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -344,7 +344,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 1:19 PM</t>
+    <t>Thursday, 31 July, 2025 1:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -176,9 +188,6 @@
     <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
@@ -344,7 +353,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 1:26 PM</t>
+    <t>Thursday, 31 July, 2025 1:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1282,7 +1291,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1292,14 +1301,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1308,14 +1317,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1365,7 +1374,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1381,7 +1390,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1398,7 +1407,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1414,7 +1423,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1424,11 +1433,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1440,28 +1449,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1473,20 +1482,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1513,7 +1522,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1530,7 +1539,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1546,21 +1555,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>27</v>
@@ -1572,28 +1581,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>27</v>
@@ -1605,28 +1614,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>27</v>
@@ -1638,20 +1647,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1678,13 +1687,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1695,7 +1704,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1711,21 +1720,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>44</v>
@@ -1737,31 +1746,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1770,31 +1779,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>103</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1810,21 +1819,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>27</v>
@@ -1836,28 +1845,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>27</v>
@@ -1869,66 +1878,99 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>973.41499999999996</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>111</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>112</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>113</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>27</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>70</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>81</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1001.415</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>114</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>115</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>116</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2077,10 +2119,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -230,6 +230,21 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>-49.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
@@ -320,9 +335,6 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -353,7 +365,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 1:27 PM</t>
+    <t>Thursday, 31 July, 2025 2:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1522,7 +1534,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1532,14 +1544,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1548,14 +1560,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,14 +1577,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1581,28 +1593,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>27</v>
@@ -1614,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1631,11 +1643,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>27</v>
@@ -1647,14 +1659,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,11 +1676,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>27</v>
@@ -1680,14 +1692,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1697,11 +1709,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>27</v>
@@ -1713,7 +1725,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1730,14 +1742,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1746,7 +1758,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1763,11 +1775,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>44</v>
@@ -1779,14 +1791,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1796,14 +1808,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1819,7 +1831,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1829,14 +1841,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,14 +1857,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1895,11 +1907,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>27</v>
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1928,49 +1940,82 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1001.415</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>114</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>115</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>116</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>117</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>27</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>70</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>86</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>951.91499999999996</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>118</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>119</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>120</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2124,10 +2169,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -335,6 +335,12 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -347,9 +353,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>23:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -365,7 +368,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 2:09 PM</t>
+    <t>Thursday, 31 July, 2025 2:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1864,7 +1867,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,11 +1877,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>27</v>
@@ -1890,14 +1893,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1907,11 +1910,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>27</v>
@@ -1923,14 +1926,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1940,11 +1943,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>27</v>
@@ -1956,14 +1959,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1973,49 +1976,82 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>951.91499999999996</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>118</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>27</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>70</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>86</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>971.91499999999996</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
         <v>119</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
         <v>120</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>121</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2174,10 +2210,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -368,7 +368,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 2:10 PM</t>
+    <t>Thursday, 31 July, 2025 2:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -308,6 +308,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>ديتول وسط</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -351,12 +360,6 @@
   </si>
   <si>
     <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
   </si>
   <si>
     <t>معجون حلاقه 55555</t>
@@ -1768,7 +1771,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1785,7 +1788,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1811,11 +1814,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>44</v>
@@ -1827,14 +1830,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1844,14 +1847,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1860,14 +1863,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1877,14 +1880,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1893,14 +1896,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1910,11 +1913,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>27</v>
@@ -1933,7 +1936,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1966,7 +1969,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1976,11 +1979,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>27</v>
@@ -1992,14 +1995,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2009,49 +2012,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>971.91499999999996</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>119</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>27</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>70</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>86</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>995.91499999999996</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>120</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
         <v>121</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>122</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2215,10 +2251,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 2:41 PM</t>
+    <t>Thursday, 31 July, 2025 2:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -371,7 +380,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 2:44 PM</t>
+    <t>Thursday, 31 July, 2025 2:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1540,7 +1549,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1550,14 +1559,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1606,7 +1615,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1623,7 +1632,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1639,21 +1648,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>27</v>
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,11 +1691,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>27</v>
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1715,11 +1724,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>27</v>
@@ -1731,14 +1740,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1771,7 +1780,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1804,7 +1813,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1821,7 +1830,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1847,11 +1856,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>44</v>
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1946,11 +1955,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>27</v>
@@ -1969,7 +1978,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1979,11 +1988,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>27</v>
@@ -1995,14 +2004,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2012,11 +2021,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>27</v>
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2045,49 +2054,82 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>995.91499999999996</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>120</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>121</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>122</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>27</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>70</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>89</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1215.915</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>123</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>124</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>125</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2256,10 +2298,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -380,7 +380,7 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 2:45 PM</t>
+    <t>Thursday, 31 July, 2025 3:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -380,7 +380,16 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 3:14 PM</t>
+    <t>نيفيا سوفت كريم 50 مل</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 31 July, 2025 3:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2098,38 +2107,71 @@
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1215.915</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>123</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>27</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>70</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>124</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1255.915</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>126</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>127</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>128</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2303,10 +2345,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -389,7 +389,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 3:15 PM</t>
+    <t>Thursday, 31 July, 2025 3:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -74,15 +89,9 @@
     <t>7.6800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -254,6 +263,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
@@ -389,7 +410,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 3:17 PM</t>
+    <t>Thursday, 31 July, 2025 3:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1113,7 +1134,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1129,7 +1150,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1139,14 +1160,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1155,14 +1176,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1179,7 +1200,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1195,7 +1216,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1205,14 +1226,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1221,14 +1242,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1245,7 +1266,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1261,7 +1282,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1271,14 +1292,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1304,14 +1325,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1320,14 +1341,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1337,14 +1358,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1353,14 +1374,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1377,7 +1398,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1393,7 +1414,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1403,14 +1424,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1419,14 +1440,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1443,7 +1464,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1459,7 +1480,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1476,7 +1497,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1492,7 +1513,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1502,14 +1523,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1518,31 +1539,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1551,20 +1572,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1575,7 +1596,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1591,7 +1612,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1601,14 +1622,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1617,14 +1638,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1634,14 +1655,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1657,7 +1678,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1683,20 +1704,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1707,7 +1728,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1723,24 +1744,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1749,31 +1770,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1782,20 +1803,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1806,7 +1827,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1822,24 +1843,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1848,31 +1869,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1881,31 +1902,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1914,31 +1935,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1947,31 +1968,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1980,31 +2001,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2013,31 +2034,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2046,31 +2067,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2079,31 +2100,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2112,66 +2133,132 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1255.915</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>126</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>127</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>128</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>129</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>30</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>73</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>96</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>130</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>30</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>73</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>131</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1303.435</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>133</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>134</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>135</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2350,10 +2437,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 3:18 PM</t>
+    <t>Thursday, 31 July, 2025 3:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -365,13 +365,13 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>30.00</t>
   </si>
   <si>
-    <t>60.0000</t>
+    <t>90.0000</t>
   </si>
   <si>
     <t>قطن 100 جم</t>
@@ -395,9 +395,6 @@
     <t>معجون حلاقه 55555</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -410,7 +407,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 3:21 PM</t>
+    <t>Thursday, 31 July, 2025 3:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2025,7 +2022,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2140,7 +2137,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2166,7 +2163,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2199,7 +2196,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2216,11 +2213,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2228,13 +2225,13 @@
     </row>
     <row r="43" ht="24.75" customHeight="1">
       <c r="P43" s="13">
-        <v>1303.435</v>
+        <v>1333.435</v>
       </c>
       <c r="Q43" s="13"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c t="s" r="A44" s="14">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2242,13 +2239,13 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c t="s" r="G44" s="15">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="16"/>
       <c t="s" r="K44" s="17">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 3:24 PM</t>
+    <t>Thursday, 31 July, 2025 3:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -182,6 +182,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -362,6 +371,15 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -398,6 +416,18 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
+    <t>مناديل بكر فاين</t>
+  </si>
+  <si>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
@@ -407,7 +437,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 3:43 PM</t>
+    <t>Thursday, 31 July, 2025 3:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1444,7 +1474,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1454,14 +1484,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1470,14 +1500,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1494,7 +1524,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1510,7 +1540,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1527,7 +1557,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1543,7 +1573,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1553,11 +1583,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1569,28 +1599,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1602,20 +1632,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1626,7 +1656,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1642,7 +1672,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1652,14 +1682,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1668,14 +1698,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1685,14 +1715,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1701,14 +1731,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1741,7 +1771,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1758,7 +1788,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1774,21 +1804,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -1800,28 +1830,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>30</v>
@@ -1833,28 +1863,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -1866,20 +1896,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1906,13 +1936,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1939,13 +1969,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1956,7 +1986,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1978,15 +2008,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>47</v>
@@ -1998,28 +2028,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>47</v>
@@ -2031,28 +2061,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2071,24 +2101,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2097,28 +2127,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2130,28 +2160,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2163,28 +2193,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2196,66 +2226,198 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1333.435</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>132</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>133</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>134</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>30</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>76</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>99</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>135</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>47</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>76</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>130</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>137</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>76</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>125</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>30</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>76</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>140</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1513.435</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>142</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>143</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>144</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2444,10 +2606,30 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -437,7 +437,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 3:44 PM</t>
+    <t>Thursday, 31 July, 2025 3:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -284,6 +284,15 @@
     <t>10.8900</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
@@ -362,7 +371,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -437,7 +449,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 3:46 PM</t>
+    <t>Thursday, 31 July, 2025 3:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1771,7 +1783,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1804,7 +1816,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1821,7 +1833,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1837,21 +1849,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>30</v>
@@ -1863,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1880,11 +1892,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -1896,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1913,11 +1925,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -1929,14 +1941,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1969,7 +1981,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2002,7 +2014,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2019,7 +2031,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2045,14 +2057,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2061,14 +2073,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2078,14 +2090,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2094,14 +2106,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2118,7 +2130,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2144,14 +2156,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2160,14 +2172,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2177,11 +2189,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2193,14 +2205,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2210,11 +2222,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2226,14 +2238,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2243,11 +2255,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2259,14 +2271,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2276,11 +2288,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2292,14 +2304,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2309,11 +2321,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2325,14 +2337,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2342,11 +2354,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2358,14 +2370,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2375,49 +2387,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1513.435</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>142</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>143</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>30</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>76</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>144</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1532.2650000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>146</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>147</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>148</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2626,10 +2671,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 3:48 PM</t>
+    <t>Thursday, 31 July, 2025 4:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -47,63 +47,75 @@
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>18.8100</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>19.2000</t>
   </si>
   <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -212,6 +224,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -236,7 +257,7 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>0</t>
@@ -245,7 +266,7 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>54.0000</t>
   </si>
   <si>
     <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
@@ -257,12 +278,18 @@
     <t>220.0000</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -371,10 +398,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -395,9 +422,6 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -437,9 +461,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
@@ -449,7 +470,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 4:19 PM</t>
+    <t>Thursday, 31 July, 2025 4:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1140,7 +1161,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1149,14 +1170,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1166,14 +1187,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1189,7 +1210,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1199,14 +1220,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1215,14 +1236,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1232,14 +1253,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1248,7 +1269,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1265,14 +1286,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1281,14 +1302,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1305,7 +1326,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1321,7 +1342,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1331,14 +1352,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1347,14 +1368,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1364,11 +1385,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1380,14 +1401,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1397,14 +1418,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1437,7 +1458,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1453,7 +1474,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1463,14 +1484,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1479,14 +1500,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1496,14 +1517,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1512,14 +1533,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1536,7 +1557,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1552,7 +1573,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1562,14 +1583,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1578,14 +1599,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1595,14 +1616,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1611,14 +1632,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1635,7 +1656,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1651,24 +1672,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1677,14 +1698,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1694,14 +1715,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1710,20 +1731,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1734,7 +1755,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1743,14 +1764,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1760,14 +1781,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1776,14 +1797,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1793,14 +1814,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1809,14 +1830,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1826,14 +1847,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1842,14 +1863,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1866,7 +1887,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1882,24 +1903,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1908,31 +1929,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1941,31 +1962,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1974,31 +1995,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2007,31 +2028,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2040,20 +2061,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2064,7 +2085,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2073,31 +2094,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2113,13 +2134,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2130,7 +2151,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2146,24 +2167,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>47</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2179,24 +2200,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2218,7 +2239,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2229,7 +2250,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2245,24 +2266,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,31 +2292,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2304,31 +2325,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2337,31 +2358,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2370,31 +2391,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2403,66 +2424,165 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1532.2650000000001</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>146</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>147</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>51</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>83</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>142</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>148</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>149</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>83</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>137</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>150</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>83</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>151</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1698.4749999999999</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>153</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>154</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>155</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2676,10 +2796,25 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -470,7 +470,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 4:33 PM</t>
+    <t>Thursday, 31 July, 2025 4:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -176,15 +188,24 @@
     <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
     <t>28.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -386,9 +407,6 @@
     <t>ديتول وسط</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -470,7 +488,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 4:34 PM</t>
+    <t>Thursday, 31 July, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1161,7 +1179,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1194,7 +1212,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1203,14 +1221,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1220,14 +1238,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1236,14 +1254,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1253,14 +1271,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1269,14 +1287,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1286,14 +1304,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1302,14 +1320,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1319,14 +1337,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1335,14 +1353,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1359,7 +1377,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1375,7 +1393,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1385,14 +1403,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1401,14 +1419,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1418,14 +1436,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1434,14 +1452,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1451,14 +1469,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1491,7 +1509,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1507,7 +1525,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1524,7 +1542,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1540,7 +1558,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1550,14 +1568,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1566,14 +1584,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1590,7 +1608,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1606,7 +1624,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1639,7 +1657,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1649,14 +1667,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1665,14 +1683,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1682,14 +1700,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1698,14 +1716,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1722,7 +1740,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1738,24 +1756,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1764,14 +1782,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1781,14 +1799,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1797,31 +1815,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1847,14 +1865,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1870,7 +1888,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1880,14 +1898,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1913,14 +1931,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1936,7 +1954,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1946,14 +1964,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1962,14 +1980,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1995,20 +2013,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2019,7 +2037,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2035,21 +2053,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2061,28 +2079,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2094,20 +2112,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2134,21 +2152,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2160,31 +2178,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2206,18 +2224,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2233,13 +2251,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2250,7 +2268,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2259,31 +2277,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2299,21 +2317,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2325,31 +2343,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,28 +2376,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2391,28 +2409,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2424,28 +2442,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2457,28 +2475,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2490,28 +2508,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2523,66 +2541,132 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1698.4749999999999</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>153</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>154</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>155</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>90</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>143</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>156</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>90</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>157</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>1834.395</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>159</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>160</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>161</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2811,10 +2895,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -320,6 +329,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
     <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
@@ -461,6 +479,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>كحول 70%</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -488,7 +512,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 5:32 PM</t>
+    <t>Thursday, 31 July, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,7 +1318,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1304,14 +1328,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1327,7 +1351,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1337,7 +1361,7 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1360,7 +1384,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1393,7 +1417,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1403,11 +1427,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
@@ -1419,14 +1443,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1443,7 +1467,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1459,7 +1483,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1469,14 +1493,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1502,14 +1526,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1518,14 +1542,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1542,7 +1566,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1558,7 +1582,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1568,14 +1592,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1584,14 +1608,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1608,7 +1632,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1624,7 +1648,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1641,7 +1665,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1657,7 +1681,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1667,14 +1691,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1683,14 +1707,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1707,7 +1731,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1723,7 +1747,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1740,7 +1764,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1789,7 +1813,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1799,11 +1823,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -1815,31 +1839,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1848,20 +1872,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1872,7 +1896,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1888,7 +1912,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1905,7 +1929,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1921,7 +1945,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1938,7 +1962,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1947,14 +1971,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1964,14 +1988,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1980,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1997,14 +2021,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2013,14 +2037,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2030,14 +2054,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2046,14 +2070,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,14 +2087,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2079,31 +2103,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2112,31 +2136,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2145,28 +2169,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2178,28 +2202,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2211,28 +2235,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2244,31 +2268,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2277,7 +2301,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2290,18 +2314,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2310,28 +2334,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2343,31 +2367,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2376,31 +2400,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2409,28 +2433,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2442,31 +2466,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2482,21 +2506,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2508,28 +2532,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2541,28 +2565,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2574,28 +2598,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2607,66 +2631,198 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>1834.395</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>159</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>160</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>12</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>93</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>124</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>161</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>58</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>93</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>154</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>162</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>163</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>93</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>149</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>12</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>93</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>165</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>1983.395</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>167</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>168</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>169</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2905,10 +3061,30 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -245,6 +257,12 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
   </si>
   <si>
@@ -344,9 +362,6 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>10.8900</t>
   </si>
   <si>
@@ -512,7 +527,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 5:39 PM</t>
+    <t>Thursday, 31 July, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1384,7 +1399,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1394,14 +1409,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1410,14 +1425,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1427,11 +1442,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
@@ -1443,14 +1458,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1483,7 +1498,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1493,14 +1508,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1509,14 +1524,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1526,14 +1541,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1542,14 +1557,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1559,14 +1574,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1582,7 +1597,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1592,14 +1607,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1608,14 +1623,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1632,7 +1647,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1648,7 +1663,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1658,14 +1673,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1674,14 +1689,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1691,14 +1706,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1707,14 +1722,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1731,7 +1746,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1747,7 +1762,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1757,14 +1772,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1773,14 +1788,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1790,14 +1805,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1813,7 +1828,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1830,7 +1845,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1846,7 +1861,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1856,11 +1871,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>29</v>
@@ -1872,31 +1887,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1905,14 +1920,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1922,14 +1937,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1938,20 +1953,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1962,7 +1977,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1978,7 +1993,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1995,7 +2010,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2004,14 +2019,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2021,14 +2036,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2037,14 +2052,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2054,14 +2069,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2070,14 +2085,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2087,14 +2102,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2110,7 +2125,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2124,10 +2139,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2136,14 +2151,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2153,11 +2168,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2169,14 +2184,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2186,14 +2201,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2202,31 +2217,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2235,28 +2250,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2268,28 +2283,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2301,28 +2316,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2334,24 +2349,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2380,7 +2395,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2391,7 +2406,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2400,31 +2415,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2433,31 +2448,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2473,24 +2488,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2499,28 +2514,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2539,13 +2554,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2556,7 +2571,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2578,15 +2593,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2605,21 +2620,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2631,28 +2646,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2664,28 +2679,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2697,28 +2712,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2730,28 +2745,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2763,66 +2778,132 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>1983.395</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>167</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
         <v>168</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>99</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>154</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>169</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>12</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>99</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>170</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2073.395</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>172</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>173</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>174</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3081,10 +3162,20 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -527,7 +527,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 5:53 PM</t>
+    <t>Thursday, 31 July, 2025 6:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -527,7 +527,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 6:00 PM</t>
+    <t>Thursday, 31 July, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -527,7 +527,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 6:22 PM</t>
+    <t>Thursday, 31 July, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -527,7 +527,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 6:31 PM</t>
+    <t>Thursday, 31 July, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>RHINOCALM SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
   </si>
   <si>
@@ -521,13 +530,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 31 July, 2025 6:36 PM</t>
+    <t>Thursday, 31 July, 2025 6:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2026,7 +2029,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2043,7 +2046,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2059,7 +2062,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2076,7 +2079,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2085,14 +2088,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2102,14 +2105,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2118,14 +2121,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2135,11 +2138,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2151,14 +2154,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2168,14 +2171,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2191,7 +2194,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2201,7 +2204,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2224,7 +2227,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2257,7 +2260,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2274,7 +2277,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2290,21 +2293,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2316,14 +2319,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2333,11 +2336,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2349,14 +2352,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2366,11 +2369,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2382,14 +2385,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2422,7 +2425,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2432,11 +2435,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2448,14 +2451,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2465,14 +2468,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2481,7 +2484,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2498,14 +2501,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2514,14 +2517,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2531,14 +2534,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2554,7 +2557,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2571,7 +2574,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2587,7 +2590,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2597,14 +2600,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2613,14 +2616,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2630,11 +2633,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2653,7 +2656,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2663,11 +2666,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2679,14 +2682,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2696,11 +2699,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2712,14 +2715,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2729,11 +2732,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2745,14 +2748,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2762,11 +2765,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2778,14 +2781,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2795,11 +2798,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2811,14 +2814,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2828,11 +2831,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2844,14 +2847,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2861,49 +2864,82 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2073.395</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>172</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>99</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>103</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2113.395</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
         <v>173</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
         <v>174</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>175</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3172,10 +3208,15 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -530,7 +530,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 6:37 PM</t>
+    <t>Thursday, 31 July, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -530,7 +530,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 6:39 PM</t>
+    <t>Thursday, 31 July, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -530,7 +530,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 6:42 PM</t>
+    <t>Thursday, 31 July, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -176,6 +176,27 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DERMOCALM TOPICAL LOTION 120 ML</t>
   </si>
   <si>
@@ -188,9 +209,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>47.8800</t>
   </si>
   <si>
@@ -239,12 +257,6 @@
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -374,6 +386,15 @@
     <t>10.8900</t>
   </si>
   <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -458,30 +479,27 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -530,7 +548,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 6:49 PM</t>
+    <t>Thursday, 31 July, 2025 6:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1534,7 +1552,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1551,7 +1569,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1577,14 +1595,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1593,14 +1611,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1617,7 +1635,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1633,7 +1651,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1643,14 +1661,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1659,14 +1677,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1676,11 +1694,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1692,14 +1710,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1709,14 +1727,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1725,14 +1743,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1749,7 +1767,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1765,7 +1783,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1775,11 +1793,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -1791,14 +1809,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1808,11 +1826,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1824,14 +1842,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1841,14 +1859,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1857,14 +1875,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1874,14 +1892,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1890,14 +1908,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1907,14 +1925,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1923,14 +1941,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1940,11 +1958,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>29</v>
@@ -1956,31 +1974,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1989,14 +2007,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2006,14 +2024,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2022,31 +2040,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2055,14 +2073,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2072,14 +2090,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2088,14 +2106,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2105,14 +2123,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2121,14 +2139,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2138,14 +2156,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2154,14 +2172,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2171,14 +2189,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2187,14 +2205,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2204,14 +2222,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2220,14 +2238,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2253,14 +2271,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2270,11 +2288,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2286,7 +2304,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2303,11 +2321,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2319,31 +2337,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2352,31 +2370,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2385,28 +2403,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2418,28 +2436,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2451,28 +2469,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2484,31 +2502,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2517,7 +2535,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2530,18 +2548,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2550,28 +2568,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2583,31 +2601,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2616,31 +2634,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2649,28 +2667,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2682,31 +2700,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2715,28 +2733,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2755,21 +2773,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2781,28 +2799,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2814,28 +2832,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2847,28 +2865,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2880,7 +2898,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2893,53 +2911,152 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2113.395</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>173</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>174</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>175</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>68</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>103</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>168</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>176</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>177</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>103</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>163</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>178</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>12</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>103</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>107</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2368.0749999999998</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>179</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>180</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>181</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3213,10 +3330,25 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -548,7 +548,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 6:52 PM</t>
+    <t>Thursday, 31 July, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -254,6 +254,18 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
@@ -293,6 +305,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>NATRY SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -317,9 +335,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -548,7 +563,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 6:53 PM</t>
+    <t>Thursday, 31 July, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,7 +1831,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1826,11 +1841,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1859,14 +1874,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1882,7 +1897,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1892,14 +1907,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1908,14 +1923,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1925,11 +1940,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1941,14 +1956,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1958,14 +1973,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1974,7 +1989,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1991,11 +2006,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -2007,14 +2022,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2024,14 +2039,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2040,31 +2055,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2073,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2090,14 +2105,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2106,31 +2121,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2139,14 +2154,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2172,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2189,14 +2204,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2222,14 +2237,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2245,7 +2260,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2259,10 +2274,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2271,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2288,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2311,7 +2326,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2325,7 +2340,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2337,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,11 +2369,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2370,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2387,14 +2402,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2403,14 +2418,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2420,14 +2435,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2436,31 +2451,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2469,28 +2484,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2502,28 +2517,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2535,28 +2550,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2568,24 +2583,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2614,7 +2629,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2622,10 +2637,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2634,31 +2649,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2667,31 +2682,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2707,21 +2722,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>68</v>
@@ -2733,28 +2748,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2766,20 +2781,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2790,7 +2805,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2812,15 +2827,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2839,21 +2854,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2865,28 +2880,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2898,28 +2913,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2931,28 +2946,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2964,28 +2979,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -2997,66 +3012,132 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>181</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>182</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
         <v>108</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2368.0749999999998</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>179</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>180</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>181</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>168</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>183</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>108</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>112</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2466.0749999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>184</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>185</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>186</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3345,10 +3426,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -224,6 +236,21 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -269,15 +296,18 @@
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
+    <t>INDERAL 40MG 50 TABLETS</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -299,18 +329,12 @@
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
     <t>25.0000</t>
   </si>
   <si>
     <t>NATRY SOAP 100 GM</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -350,9 +374,6 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
   </si>
   <si>
@@ -392,6 +413,15 @@
     <t>23.00</t>
   </si>
   <si>
+    <t>TREE OF LIFE SERUM</t>
+  </si>
+  <si>
+    <t>269.00</t>
+  </si>
+  <si>
+    <t>269.0000</t>
+  </si>
+  <si>
     <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
@@ -563,7 +593,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 6:55 PM</t>
+    <t>Thursday, 31 July, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1412,14 +1442,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1428,14 +1458,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1445,14 +1475,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1468,7 +1498,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1478,14 +1508,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1494,14 +1524,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1511,11 +1541,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
@@ -1527,14 +1557,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1567,7 +1597,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1577,11 +1607,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>29</v>
@@ -1593,14 +1623,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1617,7 +1647,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1633,7 +1663,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1643,11 +1673,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1659,14 +1689,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1676,14 +1706,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1692,14 +1722,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1709,14 +1739,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1732,7 +1762,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1742,14 +1772,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1758,14 +1788,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1775,14 +1805,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1791,14 +1821,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1808,14 +1838,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1824,14 +1854,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1841,14 +1871,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1857,14 +1887,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1874,14 +1904,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1890,14 +1920,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1907,14 +1937,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1923,14 +1953,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1940,11 +1970,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1956,14 +1986,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1973,14 +2003,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1989,14 +2019,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2006,11 +2036,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -2022,14 +2052,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2039,11 +2069,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2055,14 +2085,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2072,14 +2102,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2088,14 +2118,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2105,7 +2135,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2128,24 +2158,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2154,14 +2184,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,14 +2201,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2187,14 +2217,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2204,14 +2234,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2220,31 +2250,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2253,14 +2283,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,14 +2300,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2286,7 +2316,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2303,11 +2333,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2319,14 +2349,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,14 +2366,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2359,7 +2389,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,14 +2399,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,7 +2415,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2402,11 +2432,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2418,14 +2448,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2435,14 +2465,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2451,31 +2481,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,14 +2514,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2501,14 +2531,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,28 +2547,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2550,31 +2580,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2583,31 +2613,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2616,7 +2646,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2629,15 +2659,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2649,28 +2679,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2682,31 +2712,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,31 +2745,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2748,28 +2778,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2781,31 +2811,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,31 +2844,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,7 +2877,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2860,18 +2890,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,28 +2910,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2913,31 +2943,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2946,28 +2976,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2979,28 +3009,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3012,28 +3042,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3045,28 +3075,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3078,66 +3108,198 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2466.0749999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>189</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>12</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>116</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>154</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>190</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>72</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>116</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>183</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>184</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>185</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>186</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>191</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>192</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>116</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>178</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>193</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>12</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>116</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>120</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2882.5949999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>194</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>195</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>196</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3436,10 +3598,30 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -593,7 +593,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 7:02 PM</t>
+    <t>Thursday, 31 July, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>111.00</t>
   </si>
   <si>
@@ -74,6 +89,15 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -98,9 +122,6 @@
     <t>7.6800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -284,9 +305,6 @@
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -368,6 +386,24 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>RHINOCALM SYRUP 120ML</t>
   </si>
   <si>
@@ -518,6 +554,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ريست سبورت </t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -545,9 +587,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
@@ -593,7 +632,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 7:12 PM</t>
+    <t>Thursday, 31 July, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1284,7 +1323,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1293,14 +1332,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1310,14 +1349,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1326,14 +1365,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1350,7 +1389,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1359,14 +1398,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1376,14 +1415,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1392,14 +1431,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1409,14 +1448,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1425,14 +1464,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1442,14 +1481,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1465,7 +1504,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1475,14 +1514,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1515,7 +1554,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1531,7 +1570,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1541,14 +1580,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1564,7 +1603,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1574,14 +1613,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1590,14 +1629,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1614,7 +1653,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1630,7 +1669,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1647,7 +1686,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1680,7 +1719,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1696,7 +1735,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1713,7 +1752,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1729,7 +1768,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1739,14 +1778,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1755,14 +1794,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1772,14 +1811,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1788,14 +1827,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1805,14 +1844,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1821,14 +1860,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1838,14 +1877,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1854,14 +1893,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1871,14 +1910,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1894,7 +1933,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1911,7 +1950,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1944,7 +1983,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1970,14 +2009,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1986,14 +2025,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2003,14 +2042,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2019,14 +2058,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2036,14 +2075,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2052,14 +2091,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2069,14 +2108,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2085,14 +2124,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2102,14 +2141,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2118,14 +2157,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2135,14 +2174,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2151,14 +2190,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2168,14 +2207,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2184,14 +2223,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2201,14 +2240,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2217,14 +2256,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2234,14 +2273,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2250,28 +2289,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2283,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2300,14 +2339,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2323,24 +2362,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2349,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2366,14 +2405,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2382,14 +2421,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2399,14 +2438,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2422,7 +2461,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2432,14 +2471,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2448,14 +2487,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2465,14 +2504,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2481,31 +2520,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2514,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2531,14 +2570,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2547,14 +2586,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2564,14 +2603,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2580,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2597,14 +2636,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2620,13 +2659,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2637,7 +2676,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2653,7 +2692,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2663,14 +2702,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2686,24 +2725,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2712,31 +2751,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2745,31 +2784,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2778,31 +2817,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2811,31 +2850,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2844,20 +2883,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2865,10 +2904,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2877,31 +2916,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2910,31 +2949,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2943,31 +2982,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2976,31 +3015,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3009,31 +3048,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3049,24 +3088,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3082,24 +3121,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3108,31 +3147,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3141,31 +3180,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3174,31 +3213,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3207,31 +3246,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3240,66 +3279,231 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2882.5949999999998</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>194</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>195</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>201</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>191</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>122</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>174</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>202</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>18</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>122</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>166</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>203</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>79</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>122</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
         <v>196</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>204</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>205</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>122</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>182</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>206</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>18</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>122</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>132</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3140.3049999999998</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>207</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>208</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>209</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3618,10 +3822,35 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -146,6 +155,18 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
@@ -161,9 +182,6 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>19.2000</t>
   </si>
   <si>
@@ -314,6 +332,15 @@
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>INDERAL 40MG 50 TABLETS</t>
   </si>
   <si>
@@ -431,9 +458,6 @@
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
     <t>-49.5000</t>
   </si>
   <si>
@@ -632,7 +656,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 7:29 PM</t>
+    <t>Thursday, 31 July, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,7 +1363,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1349,14 +1373,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1365,14 +1389,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1389,7 +1413,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1405,7 +1429,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1415,14 +1439,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1431,14 +1455,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1448,14 +1472,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1464,14 +1488,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1481,14 +1505,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1497,14 +1521,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1514,14 +1538,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1537,7 +1561,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1547,11 +1571,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1563,14 +1587,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1580,7 +1604,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1636,7 +1660,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1646,11 +1670,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1662,14 +1686,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1686,7 +1710,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1702,7 +1726,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1712,11 +1736,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1728,14 +1752,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1745,11 +1769,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1761,14 +1785,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1778,14 +1802,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1794,14 +1818,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1811,14 +1835,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1827,14 +1851,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1844,14 +1868,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1860,14 +1884,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1884,7 +1908,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1900,7 +1924,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1910,14 +1934,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1926,14 +1950,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1943,14 +1967,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1959,14 +1983,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1976,14 +2000,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1992,14 +2016,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2009,14 +2033,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2049,7 +2073,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2065,7 +2089,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2075,14 +2099,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2091,14 +2115,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2108,14 +2132,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2157,14 +2181,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2207,14 +2231,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2223,14 +2247,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2240,11 +2264,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2256,14 +2280,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2273,11 +2297,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2306,14 +2330,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2322,14 +2346,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2339,11 +2363,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2355,31 +2379,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2388,7 +2412,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2405,14 +2429,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2421,14 +2445,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2438,11 +2462,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2454,20 +2478,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2475,10 +2499,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2504,11 +2528,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2520,14 +2544,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2537,11 +2561,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2570,14 +2594,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2586,14 +2610,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2603,11 +2627,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2619,14 +2643,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2636,14 +2660,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2652,31 +2676,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2685,14 +2709,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,14 +2726,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2725,7 +2749,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2739,7 +2763,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2751,31 +2775,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2784,14 +2808,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,11 +2825,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2817,14 +2841,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2834,11 +2858,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2850,31 +2874,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2883,31 +2907,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2916,28 +2940,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -2949,28 +2973,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -2982,28 +3006,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3015,20 +3039,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3036,7 +3060,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3048,31 +3072,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>169</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3081,31 +3105,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3114,28 +3138,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3147,31 +3171,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>79</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3187,24 +3211,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3220,13 +3244,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3259,18 +3283,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3279,28 +3303,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3312,28 +3336,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3345,28 +3369,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3378,28 +3402,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3411,20 +3435,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3432,7 +3456,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3444,7 +3468,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3457,53 +3481,152 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3140.3049999999998</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>207</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>208</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>209</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>211</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>85</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>131</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>204</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>212</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>213</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>131</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>190</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>214</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>18</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>131</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>141</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3271.9749999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>215</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>216</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>217</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3847,10 +3970,25 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t xml:space="preserve">COFDIETIN  CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -275,30 +284,27 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
+    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
   </si>
   <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -350,6 +356,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -404,12 +416,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -656,7 +662,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 7:33 PM</t>
+    <t>Thursday, 31 July, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1693,21 +1699,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1719,14 +1725,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1743,7 +1749,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1759,7 +1765,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1792,7 +1798,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1802,11 +1808,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1818,14 +1824,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1858,7 +1864,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1868,14 +1874,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1884,14 +1890,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1924,7 +1930,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1934,14 +1940,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1950,14 +1956,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1967,14 +1973,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1983,14 +1989,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2000,14 +2006,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2016,7 +2022,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2033,11 +2039,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2049,14 +2055,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2066,14 +2072,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2082,14 +2088,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2099,14 +2105,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2115,14 +2121,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2132,14 +2138,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2148,14 +2154,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2165,11 +2171,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2181,14 +2187,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2198,14 +2204,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2214,14 +2220,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2231,14 +2237,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2247,14 +2253,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2264,14 +2270,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2287,7 +2293,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2297,7 +2303,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2320,7 +2326,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2330,14 +2336,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2346,14 +2352,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2363,14 +2369,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2379,7 +2385,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2396,11 +2402,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2412,7 +2418,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2429,7 +2435,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2452,7 +2458,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2462,14 +2468,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2478,31 +2484,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2511,14 +2517,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2528,14 +2534,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2544,31 +2550,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2594,11 +2600,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2610,14 +2616,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2627,14 +2633,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2643,14 +2649,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2660,14 +2666,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2676,14 +2682,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2693,14 +2699,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2709,14 +2715,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2726,14 +2732,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2742,14 +2748,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2759,14 +2765,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2775,7 +2781,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2788,15 +2794,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2808,14 +2814,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2825,14 +2831,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2841,7 +2847,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2854,15 +2860,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2874,14 +2880,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2891,11 +2897,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2907,14 +2913,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2924,14 +2930,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2940,14 +2946,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2957,14 +2963,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2973,31 +2979,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3006,28 +3012,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3039,28 +3045,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3072,28 +3078,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3105,28 +3111,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3138,28 +3144,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3171,31 +3177,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>177</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3204,31 +3210,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3237,31 +3243,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3270,31 +3276,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3303,28 +3309,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3336,31 +3342,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3369,28 +3375,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3402,28 +3408,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3435,28 +3441,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3475,21 +3481,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3508,21 +3514,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3541,21 +3547,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3567,66 +3573,132 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3271.9749999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>214</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
         <v>215</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>59</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>192</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>216</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>18</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>59</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>143</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3416.0949999999998</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
         <v>217</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>218</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>219</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3985,10 +4057,20 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -296,13 +296,16 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
+    <t>0:9</t>
+  </si>
+  <si>
     <t>108.00</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
   </si>
   <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
@@ -317,6 +320,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -368,6 +380,12 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -602,6 +620,9 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -617,9 +638,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -662,7 +680,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 8:21 PM</t>
+    <t>Thursday, 31 July, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2062,7 +2080,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2072,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2088,14 +2106,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2105,11 +2123,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2121,7 +2139,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2138,11 +2156,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2154,14 +2172,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2171,14 +2189,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2187,14 +2205,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2204,11 +2222,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2220,14 +2238,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2253,14 +2271,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2270,14 +2288,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2286,14 +2304,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2303,14 +2321,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2319,14 +2337,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2336,14 +2354,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2352,14 +2370,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2369,14 +2387,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2385,7 +2403,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2402,14 +2420,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2418,14 +2436,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2435,14 +2453,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2451,7 +2469,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2468,11 +2486,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2484,7 +2502,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2501,11 +2519,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2517,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2534,14 +2552,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2550,31 +2568,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2590,7 +2608,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2600,14 +2618,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2616,31 +2634,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2656,7 +2674,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2670,7 +2688,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2682,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2699,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2715,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2732,14 +2750,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2755,7 +2773,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2765,14 +2783,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>152</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2788,7 +2806,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2798,14 +2816,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2814,14 +2832,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2831,14 +2849,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2847,7 +2865,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2860,15 +2878,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2880,14 +2898,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2897,14 +2915,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2926,7 +2944,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2953,7 +2971,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2963,7 +2981,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2986,7 +3004,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3003,7 +3021,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3019,7 +3037,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3036,7 +3054,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3052,24 +3070,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3078,28 +3096,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3111,14 +3129,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3128,11 +3146,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3144,14 +3162,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3161,11 +3179,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3177,14 +3195,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3194,11 +3212,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3210,14 +3228,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3227,11 +3245,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3243,14 +3261,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3260,14 +3278,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>179</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3276,14 +3294,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3293,14 +3311,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3309,14 +3327,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3326,14 +3344,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3342,14 +3360,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3359,7 +3377,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3382,7 +3400,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3392,11 +3410,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3408,14 +3426,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3425,11 +3443,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3441,14 +3459,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3458,14 +3476,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3474,14 +3492,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3491,11 +3509,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3514,7 +3532,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3524,11 +3542,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3540,14 +3558,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3557,11 +3575,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3573,14 +3591,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3590,11 +3608,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3606,14 +3624,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3623,11 +3641,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3639,7 +3657,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3656,49 +3674,148 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3416.0949999999998</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>217</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>218</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>219</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>88</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>59</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>212</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>220</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>221</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>59</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>198</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>222</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>18</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>59</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>149</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3644.7350000000001</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>223</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>224</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>225</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4067,10 +4184,25 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -527,10 +527,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>ZADOGLOBIN 20 CAPS</t>
@@ -614,6 +617,12 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -680,7 +689,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 8:38 PM</t>
+    <t>Thursday, 31 July, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3037,7 +3046,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,7 +3072,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3080,11 +3089,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3096,7 +3105,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3113,11 +3122,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,11 +3155,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,11 +3221,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3228,7 +3237,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3261,7 +3270,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3282,7 +3291,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3294,7 +3303,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3311,7 +3320,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3327,7 +3336,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3344,14 +3353,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3360,7 +3369,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3377,11 +3386,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>88</v>
@@ -3393,7 +3402,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3426,7 +3435,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3476,7 +3485,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3509,11 +3518,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3525,7 +3534,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3612,7 +3621,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3641,11 +3650,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3657,7 +3666,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3690,7 +3699,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3707,11 +3716,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3740,7 +3749,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3756,7 +3765,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3785,13 +3794,13 @@
     </row>
     <row r="82" ht="25.5" customHeight="1">
       <c r="P82" s="13">
-        <v>3644.7350000000001</v>
+        <v>3663.5650000000001</v>
       </c>
       <c r="Q82" s="13"/>
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c t="s" r="A83" s="14">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3799,13 +3808,13 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c t="s" r="G83" s="15">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="16"/>
       <c t="s" r="K83" s="17">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -689,7 +689,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 8:39 PM</t>
+    <t>Thursday, 31 July, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -227,13 +227,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:3</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>35.6400</t>
   </si>
   <si>
     <t>DENSITIN 30 CAPS</t>
@@ -689,7 +689,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 8:40 PM</t>
+    <t>Thursday, 31 July, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1875,7 +1875,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -3794,7 +3794,7 @@
     </row>
     <row r="82" ht="25.5" customHeight="1">
       <c r="P82" s="13">
-        <v>3663.5650000000001</v>
+        <v>3687.3249999999998</v>
       </c>
       <c r="Q82" s="13"/>
     </row>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -689,7 +689,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 8:41 PM</t>
+    <t>Thursday, 31 July, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -158,33 +158,48 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
     <t>19.2000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">COFDIETIN  CAPS</t>
   </si>
   <si>
@@ -227,7 +242,7 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:1</t>
+    <t>7:3</t>
   </si>
   <si>
     <t>36.00</t>
@@ -320,6 +335,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -407,6 +431,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>NATRY SOAP 100 GM</t>
   </si>
   <si>
@@ -428,9 +461,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -494,9 +524,6 @@
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>TREE OF LIFE SERUM</t>
   </si>
   <si>
@@ -524,12 +551,18 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -629,9 +662,15 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>شامبو فاتيكا 180مل</t>
+  </si>
+  <si>
     <t>شامبو كلير للرجال 180مل</t>
   </si>
   <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -644,9 +683,6 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -668,6 +704,9 @@
     <t>14:0</t>
   </si>
   <si>
+    <t>كريم فاتيكا 125 مل</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -683,13 +722,10 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 8:42 PM</t>
+    <t>Thursday, 31 July, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,7 +1630,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1693,7 +1729,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1707,7 +1743,7 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1719,28 +1755,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1752,28 +1788,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1785,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1802,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1818,14 +1854,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1835,11 +1871,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1851,14 +1887,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1868,14 +1904,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1884,14 +1920,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1901,14 +1937,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1917,14 +1953,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1934,14 +1970,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1950,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1967,11 +2003,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1983,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,14 +2036,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2016,14 +2052,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2033,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2049,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2082,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2099,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2139,7 +2175,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2148,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2165,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2181,31 +2217,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2214,7 +2250,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2231,14 +2267,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2247,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2264,14 +2300,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2280,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2297,14 +2333,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2313,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2330,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2346,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2363,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2379,14 +2415,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2396,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2412,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2429,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2445,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2462,14 +2498,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2478,7 +2514,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2495,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2511,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2528,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2544,7 +2580,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2561,11 +2597,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2577,7 +2613,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2594,11 +2630,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2610,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2627,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2643,31 +2679,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2676,7 +2712,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2693,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2709,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2726,11 +2762,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2742,31 +2778,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2775,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,11 +2828,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2808,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,11 +2861,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2841,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>158</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2874,7 +2910,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2891,11 +2927,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2907,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2940,31 +2976,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2973,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3006,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,11 +3059,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3046,24 +3082,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3089,11 +3125,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3105,7 +3141,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3122,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3138,28 +3174,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3171,31 +3207,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3204,31 +3240,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3237,7 +3273,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3250,15 +3286,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3270,28 +3306,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3303,28 +3339,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3343,24 +3379,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>203</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3382,18 +3418,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,28 +3438,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3435,28 +3471,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3468,31 +3504,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>88</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3501,31 +3537,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3534,28 +3570,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3567,28 +3603,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3607,21 +3643,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3640,21 +3676,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3666,31 +3702,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3699,28 +3735,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3732,28 +3768,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3765,66 +3801,297 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3687.3249999999998</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>226</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>18</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>64</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>54</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>232</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>225</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>64</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>106</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>233</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>181</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>64</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>202</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>234</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>18</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>64</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>194</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>235</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>93</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>64</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>227</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>228</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>236</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>60</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>64</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>210</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>237</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>18</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>64</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>159</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>3949.3249999999998</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>238</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>239</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>240</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4208,10 +4475,45 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 8:55 PM</t>
+    <t>Thursday, 31 July, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CYNCHOLINE 20CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -617,9 +626,6 @@
     <t>71:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -725,7 +731,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 8:58 PM</t>
+    <t>Thursday, 31 July, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1861,7 +1867,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1894,7 +1900,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1927,7 +1933,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1937,14 +1943,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1953,14 +1959,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1977,7 +1983,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1993,7 +1999,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,14 +2009,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2019,14 +2025,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2059,7 +2065,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,14 +2075,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,14 +2091,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,14 +2108,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2118,14 +2124,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2142,7 +2148,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2158,7 +2164,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2174,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2190,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2207,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2217,20 +2223,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2241,7 +2247,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2257,13 +2263,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2274,7 +2280,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2290,7 +2296,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2323,7 +2329,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2340,7 +2346,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2356,7 +2362,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,11 +2372,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2382,14 +2388,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2405,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2422,7 +2428,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2439,7 +2445,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2455,7 +2461,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2471,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2487,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2504,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,11 +2537,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,14 +2570,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,14 +2586,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,7 +2603,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2620,7 +2626,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2636,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2669,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2696,11 +2702,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2712,14 +2718,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2752,7 +2758,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,11 +2768,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2785,24 +2791,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,31 +2817,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2851,7 +2857,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2868,7 +2874,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2884,7 +2890,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2898,10 +2904,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,7 +2916,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2927,11 +2933,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2950,7 +2956,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2967,7 +2973,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2983,7 +2989,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +2999,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3016,7 +3022,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,11 +3065,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3075,28 +3081,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3115,24 +3121,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3148,7 +3154,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3181,7 +3187,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,11 +3197,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3214,7 +3220,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3230,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3247,7 +3253,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3264,7 +3270,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3280,7 +3286,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3297,7 +3303,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3313,21 +3319,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,11 +3428,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3438,14 +3444,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,7 +3461,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3478,7 +3484,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,11 +3494,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3511,7 +3517,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3525,10 +3531,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>214</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,7 +3543,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>216</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>93</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3577,7 +3583,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,14 +3609,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,11 +3626,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,11 +3659,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3669,14 +3675,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,11 +3692,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,14 +3725,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,14 +3758,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3775,7 +3781,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,11 +3791,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,11 +3824,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3841,7 +3847,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,11 +3857,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3867,14 +3873,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,11 +3890,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3900,14 +3906,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3917,11 +3923,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3933,14 +3939,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3950,11 +3956,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -3966,14 +3972,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3983,11 +3989,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4016,11 +4022,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4032,14 +4038,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4049,49 +4055,82 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>3949.3249999999998</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>238</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>239</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>18</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>64</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>162</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>3959.3249999999998</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
         <v>240</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>241</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>242</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4510,10 +4549,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -569,6 +569,15 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>VITALITA SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -716,6 +725,12 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>مرطب شفاه لونا جوز هند ابيض</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>معجون حلاقه 55555</t>
   </si>
   <si>
@@ -731,7 +746,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:00 PM</t>
+    <t>Thursday, 31 July, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3253,7 +3268,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3270,7 +3285,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3286,7 +3301,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3303,7 +3318,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3319,7 +3334,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3336,7 +3351,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3352,21 +3367,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3378,14 +3393,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,11 +3410,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3411,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,7 +3443,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3451,7 +3466,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,7 +3476,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>71</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3484,7 +3499,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,11 +3509,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3510,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3527,11 +3542,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3560,14 +3575,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>216</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,7 +3591,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3593,14 +3608,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>96</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3626,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3659,11 +3674,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3692,11 +3707,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3708,14 +3723,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,11 +3740,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3748,7 +3763,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3758,14 +3773,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,14 +3789,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3791,14 +3806,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3807,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3824,11 +3839,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3847,7 +3862,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3857,11 +3872,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3873,14 +3888,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3890,11 +3905,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>54</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3923,11 +3938,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3939,14 +3954,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3956,11 +3971,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3989,11 +4004,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4005,14 +4020,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4022,11 +4037,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4055,11 +4070,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4071,14 +4086,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4088,49 +4103,115 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>243</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>60</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>64</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>215</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>244</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>18</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>64</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>162</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>129</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>3959.3249999999998</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>240</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>241</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>242</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c t="s" r="Q91" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4038.3249999999998</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>245</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>246</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>247</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4554,10 +4635,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -746,7 +746,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:02 PM</t>
+    <t>Thursday, 31 July, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -434,6 +434,18 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -452,6 +464,18 @@
     <t>NATRY SOAP 100 GM</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -461,6 +485,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -527,9 +560,21 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -665,10 +710,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -689,12 +731,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -746,7 +782,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:04 PM</t>
+    <t>Thursday, 31 July, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2674,7 +2710,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2684,14 +2720,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2700,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2717,14 +2753,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2733,7 +2769,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2750,11 +2786,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2766,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,14 +2819,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2799,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2820,10 +2856,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2832,31 +2868,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2889,7 +2925,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2905,7 +2941,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2922,7 +2958,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2938,7 +2974,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,14 +2984,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,31 +3000,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3004,7 +3040,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3021,7 +3057,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3037,7 +3073,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3047,14 +3083,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3080,11 +3116,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3096,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,11 +3149,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3129,31 +3165,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3162,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3195,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,11 +3248,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3228,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,11 +3281,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3261,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,11 +3314,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3294,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3327,31 +3363,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3377,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,28 +3429,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3426,28 +3462,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3459,28 +3495,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3492,31 +3528,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3525,31 +3561,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,28 +3594,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3591,14 +3627,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3608,14 +3644,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>219</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3624,14 +3660,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3641,14 +3677,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3657,14 +3693,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3674,11 +3710,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3690,14 +3726,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3707,11 +3743,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3723,14 +3759,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3740,11 +3776,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3756,14 +3792,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3773,11 +3809,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3789,14 +3825,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3806,14 +3842,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>96</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,14 +3858,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3839,14 +3875,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3855,14 +3891,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3872,11 +3908,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3888,14 +3924,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3905,11 +3941,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3921,14 +3957,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3938,11 +3974,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3954,14 +3990,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3971,11 +4007,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -3987,14 +4023,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4004,14 +4040,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4020,14 +4056,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4041,7 +4077,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4053,14 +4089,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4070,11 +4106,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4086,14 +4122,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4103,11 +4139,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4119,14 +4155,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4136,11 +4172,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>215</v>
+        <v>54</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4152,14 +4188,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4169,49 +4205,247 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>250</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>251</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>64</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>71</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>252</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>199</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>64</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>71</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>253</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>18</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>64</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>215</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>254</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>96</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>64</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>244</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>255</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>60</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>64</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>230</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>256</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>18</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>64</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>173</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>129</v>
       </c>
-      <c t="s" r="Q91" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4038.3249999999998</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>245</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>246</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>247</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c t="s" r="Q97" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4540.3249999999998</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>257</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>258</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>259</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4645,10 +4879,40 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -782,7 +782,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:05 PM</t>
+    <t>Thursday, 31 July, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -782,7 +782,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:07 PM</t>
+    <t>Thursday, 31 July, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BG SKIN TONERAC NET</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -203,12 +215,18 @@
     <t xml:space="preserve">COFDIETIN  CAPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>120.0000</t>
   </si>
   <si>
+    <t>COMPLETE HAIR OIL 120 ML</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -317,6 +335,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>FANGRARE SHOWER GEL 200 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -383,6 +410,15 @@
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
+    <t>HAIRTONIC 60 CAPS.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -401,6 +437,9 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -419,6 +458,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -464,6 +512,15 @@
     <t>NATRY SOAP 100 GM</t>
   </si>
   <si>
+    <t>NEBULA HAIR TONIC</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>399.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -479,9 +536,6 @@
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>75.0000</t>
   </si>
   <si>
@@ -569,6 +623,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>TERBIN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -605,141 +668,165 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VACATION NIACINAMIDE 10%SERUM</t>
+  </si>
+  <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>475.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>VITALITA SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>71:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>ديتول وسط</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريست سبورت </t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>شامبو فاتيكا 180مل</t>
+  </si>
+  <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>VITALITA SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>ZADOGLOBIN 20 CAPS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>44:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>71:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>ديتول وسط</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ريست سبورت </t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>شامبو فاتيكا 180مل</t>
-  </si>
-  <si>
-    <t>شامبو كلير للرجال 180مل</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
     <t>23:0</t>
   </si>
   <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -773,6 +860,12 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>مناديل بكر فاين</t>
   </si>
   <si>
@@ -782,7 +875,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:13 PM</t>
+    <t>Thursday, 31 July, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1687,21 +1780,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1713,14 +1806,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1737,7 +1830,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1770,7 +1863,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1796,14 +1889,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1812,14 +1905,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1829,14 +1922,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1852,21 +1945,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1878,28 +1971,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1911,14 +2004,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1928,14 +2021,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1944,14 +2037,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1968,7 +2061,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1984,7 +2077,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2017,7 +2110,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2027,14 +2120,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2043,14 +2136,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,11 +2153,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2076,14 +2169,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2093,14 +2186,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2109,14 +2202,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2126,14 +2219,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2142,14 +2235,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,14 +2252,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2175,14 +2268,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2199,7 +2292,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2215,7 +2308,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,14 +2318,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2241,14 +2334,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2351,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2274,14 +2367,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2384,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2307,28 +2400,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2340,14 +2433,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2357,14 +2450,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2373,14 +2466,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2397,7 +2490,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2413,13 +2506,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2446,7 +2539,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,14 +2549,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,14 +2565,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2489,11 +2582,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2505,14 +2598,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,14 +2615,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2538,14 +2631,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,11 +2648,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2571,14 +2664,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2588,11 +2681,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2604,14 +2697,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2621,11 +2714,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2637,14 +2730,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2654,14 +2747,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2670,14 +2763,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2687,14 +2780,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2703,14 +2796,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,7 +2813,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2743,7 +2836,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,7 +2846,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2786,14 +2879,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2802,7 +2895,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2819,11 +2912,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2835,14 +2928,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,7 +2945,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2885,11 +2978,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2901,14 +2994,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +3011,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,14 +3027,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +3044,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,14 +3060,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,14 +3077,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3000,31 +3093,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3033,28 +3126,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3066,7 +3159,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3083,14 +3176,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3099,7 +3192,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3116,11 +3209,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3139,7 +3232,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,14 +3242,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3165,14 +3258,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3275,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,14 +3291,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,14 +3308,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,31 +3324,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,14 +3357,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3281,11 +3374,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3304,7 +3397,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,14 +3407,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,14 +3423,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,11 +3440,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3363,7 +3456,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3376,15 +3469,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3396,14 +3489,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,11 +3506,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3429,14 +3522,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3539,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,14 +3555,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,11 +3572,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3495,14 +3588,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,11 +3605,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3528,14 +3621,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,14 +3638,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,14 +3654,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,14 +3671,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,14 +3687,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,11 +3704,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3627,28 +3720,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3660,31 +3753,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,28 +3786,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3726,7 +3819,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3739,15 +3832,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3759,31 +3852,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,28 +3885,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3825,31 +3918,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>233</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,31 +3951,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3891,28 +3984,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3924,28 +4017,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3957,28 +4050,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -3990,28 +4083,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4023,31 +4116,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,28 +4149,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4089,28 +4182,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4122,31 +4215,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4155,31 +4248,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4188,28 +4281,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4221,28 +4314,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4254,28 +4347,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4287,28 +4380,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4320,31 +4413,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4353,28 +4446,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>60</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4386,66 +4479,429 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4540.3249999999998</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>257</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>258</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>259</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>272</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>26</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>46</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>273</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>275</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>276</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>46</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>273</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>277</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>18</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>46</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>58</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>278</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>268</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>46</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>118</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>279</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>280</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>46</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>77</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>281</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>266</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>46</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>77</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>282</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>18</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>46</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>240</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>283</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>284</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>46</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>255</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>285</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>102</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>46</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>273</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>286</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>64</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>46</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>255</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>287</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>18</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>46</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>191</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6304.8649999999998</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>288</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>289</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>290</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4909,10 +5365,65 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -212,6 +212,12 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CO- AVAZIR EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">COFDIETIN  CAPS</t>
   </si>
   <si>
@@ -248,6 +254,12 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -308,6 +320,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>DERMOFIX 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -326,6 +347,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -389,6 +422,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -497,9 +539,6 @@
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -578,9 +617,6 @@
     <t>102.00</t>
   </si>
   <si>
-    <t>51.0000</t>
-  </si>
-  <si>
     <t>RHINOCALM SYRUP 120ML</t>
   </si>
   <si>
@@ -605,6 +641,9 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -701,9 +740,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -776,9 +812,6 @@
     <t xml:space="preserve">ريست سبورت </t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -797,6 +830,9 @@
     <t>شامبو فاتيكا 180مل</t>
   </si>
   <si>
+    <t>شامبو كلير حريمي 180مل</t>
+  </si>
+  <si>
     <t>شامبو كلير للرجال 180مل</t>
   </si>
   <si>
@@ -875,7 +911,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:14 PM</t>
+    <t>Thursday, 31 July, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1984,15 +2020,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -2017,15 +2053,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -2037,14 +2073,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2054,11 +2090,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -2070,14 +2106,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2087,14 +2123,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2103,14 +2139,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2120,11 +2156,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2136,14 +2172,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2153,14 +2189,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2169,14 +2205,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2186,14 +2222,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2202,14 +2238,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2219,11 +2255,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2235,14 +2271,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2252,14 +2288,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2268,14 +2304,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2285,14 +2321,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2301,14 +2337,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2318,14 +2354,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2334,14 +2370,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2351,14 +2387,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2367,14 +2403,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2384,11 +2420,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2400,14 +2436,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2417,14 +2453,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2433,14 +2469,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2450,14 +2486,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2466,14 +2502,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2483,14 +2519,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2499,7 +2535,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2512,15 +2548,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2532,14 +2568,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2549,14 +2585,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2565,14 +2601,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2582,14 +2618,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2598,14 +2634,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2615,14 +2651,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2631,7 +2667,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2644,15 +2680,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2664,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2681,11 +2717,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2697,14 +2733,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2714,11 +2750,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2730,14 +2766,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2747,14 +2783,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2763,14 +2799,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2780,14 +2816,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2796,14 +2832,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2813,11 +2849,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2829,14 +2865,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2846,11 +2882,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2862,14 +2898,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2879,11 +2915,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2895,14 +2931,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2912,14 +2948,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2928,14 +2964,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2945,14 +2981,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2961,14 +2997,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2978,11 +3014,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2994,14 +3030,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3011,14 +3047,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3034,7 +3070,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3044,7 +3080,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3100,7 +3136,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3110,11 +3146,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3126,7 +3162,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3139,15 +3175,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3159,14 +3195,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,11 +3212,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3192,14 +3228,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3209,14 +3245,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3225,14 +3261,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3242,14 +3278,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3258,7 +3294,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3275,11 +3311,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3291,20 +3327,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3312,10 +3348,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3324,31 +3360,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3357,14 +3393,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,11 +3410,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3397,7 +3433,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3407,11 +3443,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3423,7 +3459,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3440,11 +3476,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3463,7 +3499,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3473,14 +3509,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3496,24 +3532,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3522,14 +3558,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3539,14 +3575,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>200</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3555,14 +3591,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,14 +3608,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3588,14 +3624,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,11 +3641,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3621,7 +3657,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3638,11 +3674,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3654,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,14 +3707,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3687,14 +3723,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3704,11 +3740,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3720,31 +3756,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3753,14 +3789,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,14 +3806,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3786,14 +3822,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,11 +3839,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3819,7 +3855,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3832,15 +3868,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3852,14 +3888,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,14 +3905,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>223</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3885,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,11 +3938,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3918,31 +3954,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3951,14 +3987,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,11 +4004,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3984,7 +4020,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4001,11 +4037,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4017,14 +4053,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,11 +4070,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4050,31 +4086,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4083,28 +4119,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4116,31 +4152,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,31 +4185,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4182,28 +4218,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4215,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4232,14 +4268,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>258</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4248,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,14 +4301,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4281,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4298,11 +4334,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4314,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4331,11 +4367,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>95</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4347,14 +4383,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4364,11 +4400,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4380,14 +4416,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4397,11 +4433,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4413,14 +4449,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4430,14 +4466,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>102</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4446,14 +4482,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4463,14 +4499,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4479,14 +4515,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4496,11 +4532,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4512,7 +4548,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4529,11 +4565,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>98</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4545,14 +4581,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4562,11 +4598,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>98</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4578,14 +4614,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4595,11 +4631,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4611,14 +4647,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4628,11 +4664,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4644,14 +4680,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4661,14 +4697,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>248</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4677,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4694,11 +4730,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4710,14 +4746,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4727,11 +4763,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4743,14 +4779,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4760,11 +4796,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4776,14 +4812,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4793,11 +4829,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4809,14 +4845,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4826,11 +4862,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4842,14 +4878,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4859,49 +4895,280 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>141</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6304.8649999999998</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>288</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>289</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>290</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>291</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>292</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>46</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>79</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>293</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>278</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>46</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>79</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>294</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>18</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>46</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>252</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>295</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>296</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>46</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>68</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>297</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>109</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>46</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>285</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>298</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>64</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>46</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>68</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>299</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>18</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>46</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>203</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6596.1049999999996</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>300</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>301</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>302</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5420,10 +5687,45 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -212,6 +212,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CO- AVAZIR EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -774,9 +786,6 @@
   </si>
   <si>
     <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>15:0</t>
   </si>
   <si>
     <t>5.00</t>
@@ -2014,7 +2023,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2024,11 +2033,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -2040,7 +2049,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2053,15 +2062,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -2073,7 +2082,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2086,15 +2095,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2146,7 +2155,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2255,11 +2264,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2295,7 +2304,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2311,7 +2320,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2321,14 +2330,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2337,14 +2346,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2361,7 +2370,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2377,7 +2386,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -2403,7 +2412,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2526,7 +2535,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2542,7 +2551,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2568,14 +2577,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2585,11 +2594,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2625,7 +2634,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2674,24 +2683,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2700,31 +2709,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2766,7 +2775,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2783,11 +2792,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2849,11 +2858,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2915,11 +2924,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3080,11 +3089,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3096,7 +3105,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3113,14 +3122,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3146,11 +3155,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3235,7 +3244,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,14 +3254,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3294,7 +3303,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3311,11 +3320,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3327,7 +3336,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3340,15 +3349,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3360,28 +3369,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,14 +3485,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3513,10 +3522,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3525,31 +3534,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3558,31 +3567,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3641,14 +3650,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3657,7 +3666,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,14 +3749,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,14 +3782,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>54</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,11 +3848,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,11 +3881,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,11 +3914,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3921,7 +3930,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3938,11 +3947,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3954,28 +3963,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3987,31 +3996,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,7 +4062,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4066,15 +4075,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4086,20 +4095,20 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4110,7 +4119,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>236</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4126,7 +4135,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,14 +4145,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4152,14 +4161,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,14 +4178,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4185,14 +4194,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,14 +4211,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>108</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,14 +4227,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,14 +4244,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,20 +4260,20 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4324,7 +4333,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>68</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4334,7 +4343,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4357,7 +4366,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,7 +4376,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>83</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4390,7 +4399,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,11 +4409,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4416,14 +4425,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,11 +4442,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,14 +4475,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>216</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>269</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4499,14 +4508,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>109</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4515,14 +4524,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4532,14 +4541,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4548,14 +4557,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4565,11 +4574,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4581,14 +4590,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,11 +4607,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4614,14 +4623,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4631,11 +4640,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4647,14 +4656,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4664,11 +4673,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4680,14 +4689,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4697,14 +4706,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4713,14 +4722,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4730,14 +4739,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4746,14 +4755,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4763,11 +4772,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4786,7 +4795,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4796,11 +4805,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4819,7 +4828,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4829,11 +4838,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4845,14 +4854,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4862,11 +4871,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4878,14 +4887,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4895,11 +4904,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>265</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4911,14 +4920,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4928,11 +4937,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4944,14 +4953,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4961,11 +4970,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -4977,14 +4986,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4994,11 +5003,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5010,14 +5019,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5027,11 +5036,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5043,14 +5052,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>109</v>
+        <v>299</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5060,11 +5069,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5076,14 +5085,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5093,11 +5102,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>43</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5109,14 +5118,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5126,49 +5135,82 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6596.1049999999996</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>300</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>301</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>302</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>18</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>46</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>207</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6627.1049999999996</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>303</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>304</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>305</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5722,10 +5764,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -416,6 +416,12 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
   </si>
   <si>
@@ -920,7 +926,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:15 PM</t>
+    <t>Thursday, 31 July, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2716,13 +2722,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2730,7 +2736,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2742,31 +2748,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2775,14 +2781,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2792,11 +2798,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2808,7 +2814,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2825,11 +2831,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2841,14 +2847,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2858,14 +2864,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2874,14 +2880,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2891,11 +2897,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2907,14 +2913,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2924,14 +2930,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2940,14 +2946,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2957,11 +2963,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2973,14 +2979,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2990,14 +2996,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3006,14 +3012,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3023,14 +3029,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3039,14 +3045,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3056,14 +3062,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3079,7 +3085,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3089,14 +3095,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3112,7 +3118,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3122,7 +3128,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3155,14 +3161,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3188,7 +3194,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3211,7 +3217,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3221,11 +3227,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3237,14 +3243,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3254,11 +3260,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3270,14 +3276,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3287,14 +3293,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3303,14 +3309,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3320,14 +3326,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3336,7 +3342,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3353,11 +3359,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3369,7 +3375,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3382,15 +3388,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3402,28 +3408,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3435,14 +3441,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3452,11 +3458,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3468,14 +3474,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,14 +3491,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3508,7 +3514,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3518,14 +3524,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3534,14 +3540,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,14 +3557,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3567,31 +3573,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3607,24 +3613,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3633,14 +3639,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,14 +3656,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3673,7 +3679,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3687,10 +3693,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3720,7 +3726,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3732,14 +3738,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3749,14 +3755,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3765,14 +3771,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3798,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,14 +3821,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>217</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3831,14 +3837,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3848,14 +3854,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3864,14 +3870,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,11 +3887,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3897,14 +3903,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3914,11 +3920,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3930,14 +3936,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3947,11 +3953,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3963,7 +3969,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3980,11 +3986,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3996,28 +4002,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4029,31 +4035,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4062,14 +4068,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,14 +4085,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4095,7 +4101,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4108,15 +4114,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4128,31 +4134,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>240</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4161,14 +4167,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,14 +4184,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4194,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,14 +4217,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4234,7 +4240,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4250,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,14 +4266,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4293,28 +4299,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4326,14 +4332,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4343,11 +4349,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4359,14 +4365,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4376,11 +4382,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4392,14 +4398,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4409,11 +4415,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>83</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4425,14 +4431,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,7 +4448,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4465,7 +4471,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4475,11 +4481,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4491,14 +4497,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4508,14 +4514,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>72</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>272</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4524,7 +4530,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4541,14 +4547,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>274</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>113</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4564,7 +4570,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,14 +4580,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4590,14 +4596,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4607,11 +4613,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4623,14 +4629,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4656,14 +4662,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4673,11 +4679,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4689,14 +4695,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4706,11 +4712,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4722,14 +4728,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4739,14 +4745,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4772,14 +4778,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>263</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4805,11 +4811,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>83</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4821,14 +4827,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4842,7 +4848,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4854,14 +4860,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,11 +4877,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4894,7 +4900,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4904,11 +4910,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>59</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4920,14 +4926,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4937,11 +4943,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4953,14 +4959,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4970,11 +4976,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -4993,7 +4999,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5007,7 +5013,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5019,14 +5025,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5036,11 +5042,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>256</v>
+        <v>83</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5052,14 +5058,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>299</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5069,11 +5075,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5092,7 +5098,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>113</v>
+        <v>301</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5102,11 +5108,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5118,14 +5124,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5135,11 +5141,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5151,14 +5157,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5168,49 +5174,82 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6627.1049999999996</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>303</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>304</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>18</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>46</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>209</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>6703.1049999999996</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
         <v>305</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>306</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>307</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5769,10 +5808,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -44,42 +44,57 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMIPRIDE 50MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>73.2600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -194,9 +209,6 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>19.2000</t>
   </si>
   <si>
@@ -293,213 +305,219 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:3</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DERMOCALM TOPICAL LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DERMOFIX 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>FANGRARE SHOWER GEL 200 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>HAIRTONIC 60 CAPS.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INDERAL 40MG 50 TABLETS</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
     <t>35.6400</t>
   </si>
   <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DERMOCALM TOPICAL LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DERMOFIX 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>FANGRARE SHOWER GEL 200 ML</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>HAIRTONIC 60 CAPS.</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>26.4000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INDERAL 40MG 50 TABLETS</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 15 CAPS.</t>
-  </si>
-  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -635,6 +653,12 @@
     <t>102.00</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>RHINOCALM SYRUP 120ML</t>
   </si>
   <si>
@@ -818,6 +842,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>ديتول وسط</t>
   </si>
   <si>
@@ -833,7 +869,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -926,7 +962,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:16 PM</t>
+    <t>Thursday, 31 July, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1633,7 +1669,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1643,14 +1679,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1659,14 +1695,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1676,14 +1712,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1692,14 +1728,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1709,14 +1745,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1725,14 +1761,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1742,14 +1778,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1758,14 +1794,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1775,14 +1811,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1791,14 +1827,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1808,14 +1844,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1831,13 +1867,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1848,7 +1884,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1857,31 +1893,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1890,14 +1926,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1907,14 +1943,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1923,14 +1959,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1940,14 +1976,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1956,14 +1992,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1973,14 +2009,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1989,14 +2025,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2006,14 +2042,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2046,7 +2082,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2062,7 +2098,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2072,14 +2108,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2088,31 +2124,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2121,31 +2157,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2154,14 +2190,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2178,7 +2214,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2194,7 +2230,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2204,14 +2240,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2220,14 +2256,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2237,14 +2273,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2253,14 +2289,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2270,14 +2306,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2286,14 +2322,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2303,11 +2339,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2319,14 +2355,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2343,7 +2379,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2359,7 +2395,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2369,14 +2405,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2385,14 +2421,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2409,7 +2445,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2425,7 +2461,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2435,14 +2471,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2451,14 +2487,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2468,14 +2504,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2484,14 +2520,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2501,14 +2537,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2517,14 +2553,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2534,14 +2570,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2574,7 +2610,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2590,7 +2626,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2600,14 +2636,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2616,7 +2652,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2633,14 +2669,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2649,14 +2685,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2666,14 +2702,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2682,14 +2718,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2699,14 +2735,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2715,14 +2751,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2732,14 +2768,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2748,20 +2784,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2772,7 +2808,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2788,7 +2824,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2802,10 +2838,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2814,31 +2850,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2847,14 +2883,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2864,11 +2900,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2880,14 +2916,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2897,14 +2933,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2913,14 +2949,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2930,14 +2966,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2946,14 +2982,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2963,14 +2999,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2979,14 +3015,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2996,14 +3032,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3012,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3029,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3045,14 +3081,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3062,11 +3098,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3078,14 +3114,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3095,14 +3131,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3111,14 +3147,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3128,11 +3164,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3144,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3161,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3177,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3194,14 +3230,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3210,14 +3246,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3227,14 +3263,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3243,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3260,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3276,14 +3312,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3293,14 +3329,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3309,14 +3345,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3326,14 +3362,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3342,14 +3378,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3359,14 +3395,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3375,14 +3411,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3392,14 +3428,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3408,31 +3444,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3441,14 +3477,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3458,14 +3494,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3481,24 +3517,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3507,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3524,14 +3560,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3540,14 +3576,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3557,14 +3593,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3573,14 +3609,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,11 +3626,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3613,24 +3649,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3639,14 +3675,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3656,14 +3692,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3672,31 +3708,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3705,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,14 +3758,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3738,14 +3774,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3755,14 +3791,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3771,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3788,14 +3824,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3811,7 +3847,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,14 +3857,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3837,14 +3873,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>219</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3870,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3887,14 +3923,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3903,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3920,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3936,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3953,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3969,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3986,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4002,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4035,31 +4071,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4068,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4085,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4101,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4118,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4134,31 +4170,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4167,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4184,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>84</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4200,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4217,14 +4253,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4233,31 +4269,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4266,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4290,7 +4326,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4306,7 +4342,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4323,7 +4359,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4339,24 +4375,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4365,31 +4401,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4398,31 +4434,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4431,31 +4467,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4464,31 +4500,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4504,24 +4540,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4530,31 +4566,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>274</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,31 +4599,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4596,20 +4632,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4617,10 +4653,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4629,31 +4665,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4662,31 +4698,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>102</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4695,31 +4731,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4728,31 +4764,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4761,31 +4797,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4794,31 +4830,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4827,31 +4863,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>87</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4860,31 +4896,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4893,31 +4929,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4926,31 +4962,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4959,31 +4995,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>270</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4992,31 +5028,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5025,31 +5061,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5058,31 +5094,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5091,31 +5127,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5124,31 +5160,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>113</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>290</v>
+        <v>87</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5157,31 +5193,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>64</v>
+        <v>295</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5190,66 +5226,198 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>6703.1049999999996</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>305</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>306</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
-        <v>307</v>
-      </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>312</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>313</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>51</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>76</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>314</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>117</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>51</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>302</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>315</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>68</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>51</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>76</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>316</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>23</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>51</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>217</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6887.165</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>317</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>318</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>319</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5813,10 +5981,30 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:20 PM</t>
+    <t>Thursday, 31 July, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>BG SKIN TONERAC NET</t>
   </si>
   <si>
@@ -674,6 +683,15 @@
     <t>220.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -761,9 +779,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -857,9 +872,6 @@
     <t>ديتول وسط</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ريست سبورت </t>
   </si>
   <si>
@@ -962,7 +974,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:25 PM</t>
+    <t>Thursday, 31 July, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1900,21 +1912,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>23</v>
@@ -1926,20 +1938,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1966,7 +1978,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1976,14 +1988,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1992,14 +2004,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2009,14 +2021,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2025,14 +2037,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2042,14 +2054,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2075,14 +2087,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2108,11 +2120,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>23</v>
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2145,7 +2157,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>23</v>
@@ -2157,7 +2169,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2170,15 +2182,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -2190,7 +2202,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2203,11 +2215,11 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2230,7 +2242,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2240,11 +2252,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>23</v>
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2280,7 +2292,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2296,7 +2308,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2306,14 +2318,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2362,7 +2374,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2395,7 +2407,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2445,7 +2457,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2461,7 +2473,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2560,7 +2572,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2636,14 +2648,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2669,7 +2681,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2692,7 +2704,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2709,7 +2721,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2725,7 +2737,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2758,7 +2770,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2768,14 +2780,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>135</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2817,14 +2829,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2838,10 +2850,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2850,28 +2862,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2890,13 +2902,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2907,7 +2919,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2923,7 +2935,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2989,7 +3001,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3006,7 +3018,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3022,7 +3034,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3032,11 +3044,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -3048,14 +3060,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,14 +3077,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3088,7 +3100,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3121,7 +3133,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3138,7 +3150,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3154,7 +3166,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3164,14 +3176,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,14 +3242,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3246,14 +3258,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,11 +3275,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3279,7 +3291,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3319,7 +3331,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3329,11 +3341,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3362,7 +3374,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3385,7 +3397,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3395,11 +3407,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3411,14 +3423,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3428,14 +3440,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3461,14 +3473,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3494,11 +3506,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3510,7 +3522,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3523,15 +3535,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3550,13 +3562,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3583,7 +3595,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3593,11 +3605,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3609,14 +3621,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3626,14 +3638,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,14 +3671,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3682,7 +3694,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3692,14 +3704,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3715,24 +3727,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3741,31 +3753,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3781,7 +3793,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3795,10 +3807,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3807,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,14 +3836,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,11 +3869,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3873,7 +3885,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3890,11 +3902,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3913,7 +3925,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3930,7 +3942,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3946,7 +3958,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,11 +3968,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3972,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +4001,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4005,14 +4017,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,11 +4034,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4045,7 +4057,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,14 +4067,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>233</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4078,7 +4090,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,11 +4100,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4104,7 +4116,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4121,11 +4133,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4137,14 +4149,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,11 +4166,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4170,28 +4182,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4203,14 +4215,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,14 +4232,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4249,7 +4261,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4276,24 +4288,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4309,7 +4321,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>250</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,7 +4347,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4348,15 +4360,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4397,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4408,7 +4420,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4425,7 +4437,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4441,7 +4453,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,14 +4463,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4467,31 +4479,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,28 +4512,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4533,28 +4545,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>23</v>
@@ -4566,28 +4578,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>23</v>
@@ -4599,31 +4611,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4632,28 +4644,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4665,31 +4677,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4698,31 +4710,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>286</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4738,24 +4750,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>117</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,31 +4776,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,7 +4809,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4810,18 +4822,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4830,28 +4842,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4863,28 +4875,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -4896,28 +4908,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>23</v>
@@ -4929,31 +4941,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>147</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>117</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4962,28 +4974,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>120</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>23</v>
@@ -5008,18 +5020,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5028,28 +5040,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>90</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5061,28 +5073,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5094,28 +5106,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>23</v>
@@ -5127,28 +5139,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>23</v>
@@ -5160,28 +5172,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>23</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>23</v>
@@ -5193,28 +5205,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>23</v>
@@ -5226,28 +5238,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>23</v>
+        <v>313</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>23</v>
@@ -5259,28 +5271,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>23</v>
@@ -5292,28 +5304,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>23</v>
@@ -5325,24 +5337,24 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5358,66 +5370,132 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6887.165</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>317</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>318</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>319</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>71</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>54</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>79</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>320</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>23</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>54</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>220</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6991.165</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>321</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>322</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>323</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6001,10 +6079,20 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:27 PM</t>
+    <t>Thursday, 31 July, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>CO- AVAZIR EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -266,6 +275,18 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -545,6 +566,12 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
   </si>
   <si>
@@ -572,9 +599,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -635,9 +659,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -650,9 +671,6 @@
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -974,7 +992,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:28 PM</t>
+    <t>Thursday, 31 July, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2176,7 +2194,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2190,10 +2208,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2202,7 +2220,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2215,15 +2233,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>23</v>
@@ -2235,7 +2253,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2248,11 +2266,11 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2275,7 +2293,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2285,11 +2303,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>23</v>
@@ -2301,14 +2319,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2341,7 +2359,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2351,11 +2369,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>23</v>
@@ -2367,14 +2385,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2384,11 +2402,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2457,7 +2475,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2473,7 +2491,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2523,7 +2541,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2539,7 +2557,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2556,7 +2574,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2572,7 +2590,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2582,11 +2600,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2747,14 +2765,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2820,7 +2838,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>138</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2846,14 +2864,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2879,14 +2897,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2895,31 +2913,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2928,7 +2946,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2961,31 +2979,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3011,11 +3029,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3077,14 +3095,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3126,14 +3144,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3159,7 +3177,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3192,14 +3210,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3209,11 +3227,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3242,14 +3260,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3275,11 +3293,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3291,14 +3309,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3324,14 +3342,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3374,14 +3392,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3390,14 +3408,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3407,14 +3425,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3463,7 +3481,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3473,14 +3491,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3489,7 +3507,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3506,11 +3524,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3522,14 +3540,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3539,11 +3557,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3555,31 +3573,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,11 +3623,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3621,7 +3639,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3654,31 +3672,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3704,11 +3722,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3737,14 +3755,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3760,24 +3778,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3793,7 +3811,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3826,7 +3844,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3840,7 +3858,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3859,24 +3877,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3892,7 +3910,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,11 +3920,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3925,7 +3943,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3939,10 +3957,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3951,14 +3969,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3968,11 +3986,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3984,14 +4002,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,14 +4019,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4017,7 +4035,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4034,11 +4052,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4067,14 +4085,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>233</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4100,14 +4118,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4116,14 +4134,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4133,11 +4151,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4149,14 +4167,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,14 +4184,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,11 +4217,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4215,7 +4233,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4232,11 +4250,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4248,7 +4266,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4261,15 +4279,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,14 +4316,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4314,14 +4332,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,11 +4349,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4347,7 +4365,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4364,11 +4382,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4380,14 +4398,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4415,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,7 +4431,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4430,11 +4448,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4446,31 +4464,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4479,14 +4497,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,14 +4514,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,7 +4530,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4529,11 +4547,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4545,31 +4563,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>61</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,31 +4596,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,28 +4629,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>23</v>
@@ -4644,14 +4662,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,11 +4679,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4677,14 +4695,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4694,14 +4712,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,14 +4728,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,11 +4745,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -4743,14 +4761,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,11 +4778,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4783,7 +4801,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,14 +4811,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>290</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,14 +4827,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4844,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4849,7 +4867,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,11 +4877,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4892,14 +4910,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4926,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,14 +4943,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>110</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4941,7 +4959,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4958,11 +4976,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>278</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -4974,14 +4992,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +5009,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>23</v>
@@ -5007,14 +5025,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,14 +5042,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5040,14 +5058,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,11 +5075,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5073,14 +5091,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,11 +5108,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5106,14 +5124,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,14 +5141,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5139,14 +5157,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,11 +5174,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>23</v>
@@ -5172,14 +5190,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,11 +5207,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>66</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>23</v>
@@ -5212,7 +5230,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,11 +5240,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>226</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>23</v>
@@ -5238,14 +5256,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5255,11 +5273,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>23</v>
@@ -5271,14 +5289,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,11 +5306,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>23</v>
@@ -5304,14 +5322,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>23</v>
+        <v>307</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5321,11 +5339,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>23</v>
@@ -5337,14 +5355,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5354,11 +5372,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>23</v>
@@ -5370,14 +5388,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5387,11 +5405,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>23</v>
@@ -5403,14 +5421,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5420,11 +5438,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>23</v>
@@ -5436,14 +5454,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5453,49 +5471,148 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6991.165</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>321</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>322</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>323</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>324</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>127</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>54</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>312</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>325</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>71</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>54</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>82</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>326</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>23</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>54</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>226</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7069.375</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>327</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>328</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>329</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6089,10 +6206,25 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -971,6 +971,9 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>مزيل عرق فوج FOGG MASTER</t>
+  </si>
+  <si>
     <t>معجون حلاقه 55555</t>
   </si>
   <si>
@@ -992,7 +995,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:30 PM</t>
+    <t>Thursday, 31 July, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5395,7 +5398,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>305</v>
+        <v>71</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5405,11 +5408,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>23</v>
@@ -5428,7 +5431,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>23</v>
+        <v>305</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5438,11 +5441,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>277</v>
+        <v>97</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>23</v>
@@ -5461,7 +5464,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5471,11 +5474,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>23</v>
@@ -5487,14 +5490,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>127</v>
+        <v>324</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5504,11 +5507,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>313</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>23</v>
@@ -5527,7 +5530,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5537,11 +5540,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>48</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>23</v>
@@ -5560,7 +5563,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5570,49 +5573,82 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>327</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>23</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>54</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>226</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>176</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7069.375</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>327</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
+      <c t="s" r="Q127" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7189.375</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
         <v>328</v>
       </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
         <v>329</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>330</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6221,10 +6257,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -995,7 +995,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:33 PM</t>
+    <t>Thursday, 31 July, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -995,7 +995,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:36 PM</t>
+    <t>Thursday, 31 July, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
   </si>
   <si>
@@ -404,174 +413,186 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>FANGRARE SHOWER GEL 200 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>HAIRTONIC 60 CAPS.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 40MG 50 TABLETS</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>FANGRARE SHOWER GEL 200 ML</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>HAIRTONIC 60 CAPS.</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>26.4000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INDERAL 40MG 50 TABLETS</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 15 CAPS.</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>KETOPREK 75 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
   </si>
   <si>
@@ -926,9 +947,6 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -995,7 +1013,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:40 PM</t>
+    <t>Thursday, 31 July, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1933,7 +1951,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1966,21 +1984,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>23</v>
@@ -1992,20 +2010,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -2032,7 +2050,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2042,14 +2060,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2058,14 +2076,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2075,14 +2093,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2091,14 +2109,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2108,14 +2126,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2124,14 +2142,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2141,14 +2159,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2157,14 +2175,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2174,11 +2192,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>23</v>
@@ -2190,14 +2208,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2214,7 +2232,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2230,7 +2248,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2244,10 +2262,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2256,7 +2274,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2269,15 +2287,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>23</v>
@@ -2289,7 +2307,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2302,11 +2320,11 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2329,7 +2347,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2339,14 +2357,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2372,14 +2390,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2412,7 +2430,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2428,7 +2446,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2438,14 +2456,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2454,14 +2472,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2471,14 +2489,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2494,7 +2512,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2527,7 +2545,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2537,14 +2555,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2553,14 +2571,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2577,7 +2595,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2593,7 +2611,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2603,14 +2621,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2619,14 +2637,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2692,7 +2710,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2702,14 +2720,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2801,14 +2819,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2824,7 +2842,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2841,7 +2859,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2857,7 +2875,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2890,7 +2908,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2900,14 +2918,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2933,14 +2951,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2970,10 +2988,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2982,28 +3000,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -3022,13 +3040,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3039,7 +3057,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3055,7 +3073,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3121,7 +3139,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3138,7 +3156,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3154,7 +3172,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3164,11 +3182,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3220,7 +3238,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3253,7 +3271,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3270,7 +3288,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3286,7 +3304,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3296,14 +3314,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3312,14 +3330,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3329,14 +3347,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3345,14 +3363,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3362,11 +3380,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3378,14 +3396,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3395,14 +3413,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3411,14 +3429,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3428,11 +3446,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3444,7 +3462,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3461,14 +3479,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3484,7 +3502,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,14 +3512,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3510,14 +3528,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,14 +3545,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3543,14 +3561,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3560,11 +3578,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3576,14 +3594,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3593,14 +3611,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3649,7 +3667,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3659,11 +3677,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3675,31 +3693,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3715,7 +3733,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3758,11 +3776,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3781,24 +3799,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3807,14 +3825,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,11 +3842,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3880,24 +3898,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3913,7 +3931,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,11 +3941,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3939,14 +3957,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3956,11 +3974,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3972,31 +3990,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4005,14 +4023,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,11 +4040,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -4038,14 +4056,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4055,14 +4073,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4078,7 +4096,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,11 +4106,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -4104,14 +4122,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4121,14 +4139,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,7 +4155,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4154,11 +4172,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4177,7 +4195,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,14 +4205,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>239</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4210,7 +4228,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4227,7 +4245,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4243,7 +4261,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,11 +4271,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4269,14 +4287,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,14 +4304,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4309,7 +4327,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,11 +4337,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4335,7 +4353,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4352,11 +4370,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4368,7 +4386,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4381,15 +4399,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4401,14 +4419,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,14 +4436,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4441,7 +4459,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,11 +4469,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4467,7 +4485,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4480,15 +4498,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4500,14 +4518,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,14 +4535,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>97</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4533,7 +4551,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4550,11 +4568,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4566,31 +4584,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4599,14 +4617,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,14 +4634,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4632,7 +4650,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4649,11 +4667,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>23</v>
@@ -4665,31 +4683,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>64</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,31 +4716,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,28 +4749,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -4764,28 +4782,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4797,31 +4815,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4830,28 +4848,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>23</v>
@@ -4863,28 +4881,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4896,31 +4914,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>296</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,31 +4947,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,28 +4980,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -4995,7 +5013,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5008,18 +5026,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>116</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>23</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5028,31 +5046,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>116</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,7 +5079,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5074,15 +5092,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5094,28 +5112,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5127,31 +5145,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5160,28 +5178,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>23</v>
@@ -5193,28 +5211,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>23</v>
@@ -5233,24 +5251,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5259,28 +5277,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>23</v>
@@ -5292,28 +5310,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>23</v>
@@ -5332,21 +5350,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>23</v>
@@ -5358,28 +5376,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>23</v>
@@ -5391,28 +5409,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>23</v>
@@ -5424,28 +5442,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>23</v>
@@ -5457,28 +5475,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>325</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>23</v>
@@ -5490,28 +5508,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>23</v>
@@ -5523,28 +5541,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>23</v>
@@ -5556,28 +5574,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>23</v>
@@ -5589,66 +5607,165 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>23</v>
+        <v>330</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7189.375</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>328</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>329</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>330</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>331</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>130</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>57</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>318</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>332</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>74</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>57</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>85</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>333</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>23</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>57</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>233</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7316.8249999999998</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>334</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>335</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>336</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6262,10 +6379,25 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -1013,7 +1013,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:44 PM</t>
+    <t>Thursday, 31 July, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALOEKITA DS HAIR SHAMPOO 250 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -80,9 +95,6 @@
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>111.00</t>
   </si>
   <si>
@@ -104,9 +116,6 @@
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>128.00</t>
   </si>
   <si>
@@ -185,12 +194,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>229.0000</t>
-  </si>
-  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -416,6 +419,18 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EMMYROSA HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -434,6 +449,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>FANGRARE SHOWER GEL 200 ML</t>
   </si>
   <si>
@@ -491,462 +515,471 @@
     <t>180.00</t>
   </si>
   <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>HAIRTONIC 60 CAPS.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 40MG 50 TABLETS</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NATRY SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>NEBULA HAIR TONIC</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>399.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RHINOCALM SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>-49.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>TERBIN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TREE OF LIFE SERUM</t>
+  </si>
+  <si>
+    <t>269.00</t>
+  </si>
+  <si>
+    <t>269.0000</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VACATION NIACINAMIDE 10%SERUM</t>
+  </si>
+  <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>475.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>VITALITA SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>71:0</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>ديتول وسط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريست سبورت </t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>شامبو فاتيكا 180مل</t>
+  </si>
+  <si>
+    <t>شامبو كلير حريمي 180مل</t>
+  </si>
+  <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>HAIRTONIC 60 CAPS.</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>26.4000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 40MG 50 TABLETS</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 15 CAPS.</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>KETOPREK 75 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>NATRY SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>NEBULA HAIR TONIC</t>
-  </si>
-  <si>
-    <t>399.00</t>
-  </si>
-  <si>
-    <t>399.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RHINOCALM SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>220.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>-49.5000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TERBIN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TREE OF LIFE SERUM</t>
-  </si>
-  <si>
-    <t>269.00</t>
-  </si>
-  <si>
-    <t>269.0000</t>
-  </si>
-  <si>
-    <t>TRYPTIZOL 25MG 30 TAB</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>VACATION NIACINAMIDE 10%SERUM</t>
-  </si>
-  <si>
-    <t>475.00</t>
-  </si>
-  <si>
-    <t>475.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>VITALITA SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>ZADOGLOBIN 20 CAPS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>44:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>71:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>ديتول وسط</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ريست سبورت </t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>شامبو فاتيكا 180مل</t>
-  </si>
-  <si>
-    <t>شامبو كلير حريمي 180مل</t>
-  </si>
-  <si>
-    <t>شامبو كلير للرجال 180مل</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -1013,7 +1046,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:46 PM</t>
+    <t>Thursday, 31 July, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1737,7 +1770,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1746,14 +1779,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1770,7 +1803,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1803,7 +1836,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1819,7 +1852,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1836,7 +1869,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1852,7 +1885,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1862,14 +1895,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1878,14 +1911,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1895,14 +1928,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1911,14 +1944,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1928,14 +1961,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1944,14 +1977,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1961,14 +1994,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>52</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1984,7 +2017,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2001,7 +2034,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2017,24 +2050,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2043,31 +2076,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2076,14 +2109,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2093,14 +2126,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2109,14 +2142,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2126,14 +2159,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2142,14 +2175,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2159,14 +2192,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2175,14 +2208,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2192,14 +2225,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2208,14 +2241,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2225,14 +2258,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2241,14 +2274,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2258,14 +2291,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2274,14 +2307,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2291,14 +2324,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2307,31 +2340,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2340,31 +2373,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2373,14 +2406,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2390,14 +2423,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2406,14 +2439,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2423,14 +2456,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2439,14 +2472,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2456,14 +2489,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2472,14 +2505,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2489,14 +2522,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2505,14 +2538,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2522,14 +2555,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2538,14 +2571,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2555,11 +2588,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2571,14 +2604,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2588,14 +2621,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2604,14 +2637,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2621,14 +2654,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2637,14 +2670,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2654,14 +2687,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2670,14 +2703,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2687,14 +2720,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2703,14 +2736,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2720,14 +2753,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2736,14 +2769,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2753,14 +2786,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2769,14 +2802,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2786,14 +2819,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2802,14 +2835,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2819,14 +2852,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2835,14 +2868,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2852,11 +2885,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2868,14 +2901,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2885,14 +2918,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2901,7 +2934,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2918,14 +2951,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2934,14 +2967,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2951,14 +2984,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2967,14 +3000,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2984,11 +3017,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3000,14 +3033,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3017,14 +3050,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3033,31 +3066,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3066,14 +3099,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3090,7 +3123,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3106,7 +3139,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3120,10 +3153,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3132,31 +3165,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3165,14 +3198,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3182,14 +3215,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3198,14 +3231,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3215,14 +3248,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3231,14 +3264,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3248,14 +3281,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3264,14 +3297,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3281,11 +3314,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3297,7 +3330,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3314,14 +3347,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3330,14 +3363,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3347,11 +3380,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3363,14 +3396,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3380,14 +3413,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3403,7 +3436,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3413,14 +3446,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3429,14 +3462,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3446,11 +3479,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3462,14 +3495,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3479,14 +3512,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3495,14 +3528,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3512,14 +3545,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3528,14 +3561,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3545,11 +3578,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3561,14 +3594,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3578,14 +3611,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3594,14 +3627,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3611,14 +3644,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3627,14 +3660,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3644,14 +3677,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3660,14 +3693,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3677,14 +3710,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3700,7 +3733,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3710,11 +3743,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3726,14 +3759,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3743,14 +3776,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3759,14 +3792,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3776,14 +3809,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3792,31 +3825,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3825,14 +3858,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3842,14 +3875,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3858,14 +3891,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3875,14 +3908,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3891,14 +3924,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3908,14 +3941,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3924,14 +3957,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3941,14 +3974,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3957,31 +3990,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3990,28 +4023,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4023,14 +4056,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,14 +4073,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4056,14 +4089,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,11 +4106,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4089,14 +4122,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,14 +4139,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4122,14 +4155,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,14 +4172,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4155,7 +4188,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4168,18 +4201,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4188,14 +4221,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,14 +4238,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4221,7 +4254,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4238,11 +4271,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4261,7 +4294,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,14 +4304,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4287,14 +4320,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,14 +4337,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>246</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4327,7 +4360,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4344,7 +4377,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4360,7 +4393,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,14 +4403,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4386,14 +4419,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,14 +4436,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4419,14 +4452,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,14 +4469,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4452,14 +4485,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,14 +4502,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4485,31 +4518,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,14 +4551,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,14 +4568,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4551,14 +4584,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4601,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,31 +4617,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>50</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,14 +4650,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4667,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>238</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4650,31 +4683,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4683,14 +4716,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4700,14 +4733,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4716,14 +4749,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,14 +4766,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4749,31 +4782,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4782,31 +4815,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4815,31 +4848,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4848,31 +4881,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4881,31 +4914,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4914,28 +4947,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4947,31 +4980,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4980,31 +5013,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>85</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5020,24 +5053,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>303</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,31 +5079,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5086,24 +5119,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5112,31 +5145,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,31 +5178,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5178,31 +5211,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>23</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5211,31 +5244,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>23</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5244,31 +5277,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5277,31 +5310,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5310,31 +5343,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>120</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5343,7 +5376,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5356,18 +5389,18 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5383,24 +5416,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5409,31 +5442,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>70</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>23</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5449,24 +5482,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5475,31 +5508,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>100</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>291</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5508,31 +5541,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>47</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>87</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5541,31 +5574,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5574,31 +5607,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5607,31 +5640,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5640,31 +5673,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5673,31 +5706,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5706,66 +5739,231 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7316.8249999999998</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>334</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>335</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>336</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>339</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>21</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>60</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>296</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>340</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>341</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>60</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>86</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>342</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>131</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>60</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>329</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>343</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>75</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>60</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>86</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>344</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>21</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>60</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>246</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7927.9849999999997</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>345</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>346</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>347</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6394,10 +6592,35 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -80,282 +80,282 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>BG SKIN TONERAC NET</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>CO- AVAZIR EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COFDIETIN  CAPS</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>COMPLETE HAIR OIL 120 ML</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CYNCHOLINE 20CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECANCIT S.R 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AMIPRIDE 50MG 30 TAB</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>73.2600</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>AUGRAM 1GM 14 TABS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>18.8100</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BETADINE VAGINAL DOUCHE 10% 120 ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>BG SKIN TONERAC NET</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CLATEX 75MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>CO- AVAZIR EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COFDIETIN  CAPS</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>COMPLETE HAIR OIL 120 ML</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CYNCHOLINE 20CAPS.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>DAKTACORT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECANCIT S.R 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -413,6 +413,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -518,6 +527,12 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>FLEBOTON 3 AMP.</t>
+  </si>
+  <si>
+    <t>67.8300</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -695,9 +710,6 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>OMEGA ZAD SYURP 100 ML</t>
   </si>
   <si>
@@ -950,7 +962,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>27:0</t>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>31:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1046,7 +1061,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:56 PM</t>
+    <t>Thursday, 31 July, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1768,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1763,14 +1778,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1779,7 +1794,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1796,14 +1811,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1935,7 +1950,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2001,7 +2016,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2010,7 +2025,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2027,11 +2042,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -2043,7 +2058,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2060,11 +2075,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -2076,7 +2091,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2089,7 +2104,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2109,7 +2124,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2126,11 +2141,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -2142,14 +2157,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2159,11 +2174,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2175,14 +2190,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2192,11 +2207,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2208,7 +2223,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2229,7 +2244,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2241,14 +2256,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2258,11 +2273,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2274,14 +2289,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2291,11 +2306,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2307,7 +2322,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2324,11 +2339,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2340,7 +2355,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2357,7 +2372,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2373,7 +2388,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2386,7 +2401,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2394,7 +2409,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2406,7 +2421,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2423,11 +2438,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2439,14 +2454,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2456,11 +2471,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2489,11 +2504,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2505,7 +2520,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2522,11 +2537,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2538,7 +2553,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2559,7 +2574,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2571,7 +2586,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2588,11 +2603,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2604,7 +2619,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2621,11 +2636,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2637,14 +2652,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2654,14 +2669,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2819,7 +2834,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2859,7 +2874,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2875,7 +2890,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2885,7 +2900,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2908,7 +2923,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2918,14 +2933,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2941,7 +2956,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2958,7 +2973,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2974,7 +2989,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2991,7 +3006,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3040,7 +3055,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3073,7 +3088,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3116,14 +3131,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3132,14 +3147,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3153,10 +3168,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3165,28 +3180,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3205,13 +3220,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3238,7 +3253,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3255,7 +3270,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3271,7 +3286,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3297,7 +3312,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3314,11 +3329,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3347,11 +3362,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3413,11 +3428,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3446,14 +3461,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3512,14 +3527,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3528,14 +3543,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3545,14 +3560,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3561,14 +3576,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3578,14 +3593,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3601,7 +3616,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3611,14 +3626,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3627,14 +3642,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3644,11 +3659,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3660,14 +3675,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3677,14 +3692,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3693,14 +3708,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3710,11 +3725,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3726,14 +3741,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3743,11 +3758,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3759,14 +3774,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3776,14 +3791,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3799,7 +3814,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3809,14 +3824,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3865,7 +3880,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3875,11 +3890,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3891,14 +3906,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3908,14 +3923,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3924,14 +3939,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3941,11 +3956,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3974,14 +3989,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3990,7 +4005,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4003,15 +4018,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -4023,14 +4038,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4040,11 +4055,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4056,7 +4071,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4069,15 +4084,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4089,14 +4104,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4106,14 +4121,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4122,7 +4137,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4139,11 +4154,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4155,14 +4170,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4172,11 +4187,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4188,31 +4203,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4228,7 +4243,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4238,14 +4253,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4261,24 +4276,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4304,7 +4319,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4327,7 +4342,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4341,10 +4356,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4360,7 +4375,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4370,11 +4385,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4386,14 +4401,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4403,11 +4418,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4419,14 +4434,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4436,14 +4451,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4452,14 +4467,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4469,11 +4484,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4492,7 +4507,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4502,14 +4517,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>258</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4525,7 +4540,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4535,11 +4550,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4551,14 +4566,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4568,14 +4583,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4584,14 +4599,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4601,11 +4616,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4634,11 +4649,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4650,14 +4665,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4667,11 +4682,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4683,28 +4698,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4723,7 +4738,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4733,14 +4748,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4749,7 +4764,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4762,15 +4777,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4782,31 +4797,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4815,14 +4830,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4832,14 +4847,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4848,7 +4863,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4861,15 +4876,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4881,14 +4896,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4898,14 +4913,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>126</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>26</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4914,14 +4929,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4931,14 +4946,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4947,14 +4962,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4964,14 +4979,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>126</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4980,31 +4995,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5013,28 +5028,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5046,28 +5061,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5079,28 +5094,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5112,31 +5127,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5145,28 +5160,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5185,24 +5200,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>21</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5211,31 +5226,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>313</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5251,24 +5266,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5277,31 +5292,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5310,7 +5325,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5323,18 +5338,18 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5343,28 +5358,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5376,28 +5391,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5409,28 +5424,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5442,31 +5457,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5475,28 +5490,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5508,31 +5523,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>85</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>102</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5548,21 +5563,21 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>18</v>
+        <v>329</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>100</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5574,28 +5589,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>330</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5614,21 +5629,21 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>70</v>
+        <v>334</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>71</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>21</v>
@@ -5640,28 +5655,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5673,28 +5688,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5706,28 +5721,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5739,28 +5754,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>135</v>
+        <v>341</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>21</v>
@@ -5772,28 +5787,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5805,28 +5820,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>341</v>
+        <v>138</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>21</v>
@@ -5838,28 +5853,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5871,24 +5886,24 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
@@ -5904,66 +5919,132 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>196</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7927.9849999999997</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>345</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>346</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>347</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>348</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>74</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>59</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>85</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>349</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>21</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>59</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>250</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>8098.5249999999996</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>350</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>351</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>352</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6617,10 +6698,20 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -1061,7 +1061,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 9:57 PM</t>
+    <t>Thursday, 31 July, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
@@ -461,12 +470,6 @@
     <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
   </si>
   <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
     <t>FANGRARE SHOWER GEL 200 ML</t>
   </si>
   <si>
@@ -779,6 +782,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -989,6 +1001,9 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -1049,9 +1064,6 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>مناديل بكر فاين</t>
   </si>
   <si>
@@ -1061,7 +1073,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 10:00 PM</t>
+    <t>Thursday, 31 July, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2164,7 +2176,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2174,14 +2186,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2190,14 +2202,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2207,14 +2219,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2273,14 +2285,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2289,14 +2301,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2306,11 +2318,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2346,7 +2358,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2362,7 +2374,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2376,10 +2388,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2388,7 +2400,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2401,15 +2413,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2421,7 +2433,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2434,11 +2446,11 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2461,7 +2473,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2544,7 +2556,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2560,7 +2572,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2626,7 +2638,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2659,7 +2671,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2725,7 +2737,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2824,7 +2836,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2883,14 +2895,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2907,7 +2919,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2923,7 +2935,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2933,7 +2945,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2956,7 +2968,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2966,14 +2978,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2989,7 +3001,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3006,7 +3018,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3022,7 +3034,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3039,7 +3051,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3088,7 +3100,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3098,11 +3110,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3114,14 +3126,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3131,14 +3143,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3164,14 +3176,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3213,28 +3225,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3246,28 +3258,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3279,14 +3291,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3312,14 +3324,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3329,14 +3341,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3362,14 +3374,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3395,14 +3407,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3411,14 +3423,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3428,14 +3440,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3461,11 +3473,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3477,14 +3489,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3494,11 +3506,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3517,7 +3529,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3527,14 +3539,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3543,14 +3555,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3560,11 +3572,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3576,14 +3588,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3593,14 +3605,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3609,14 +3621,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3626,14 +3638,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3659,14 +3671,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3675,14 +3687,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3692,14 +3704,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3725,14 +3737,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3781,7 +3793,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3791,11 +3803,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3814,7 +3826,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3824,11 +3836,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3857,14 +3869,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3873,14 +3885,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3890,11 +3902,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3923,11 +3935,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3939,14 +3951,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3956,11 +3968,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3972,14 +3984,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3989,14 +4001,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4012,7 +4024,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4022,14 +4034,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4038,7 +4050,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4055,11 +4067,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4084,15 +4096,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4104,28 +4116,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4137,14 +4149,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4154,11 +4166,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4177,7 +4189,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4187,14 +4199,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4203,14 +4215,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4220,14 +4232,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4253,14 +4265,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4269,31 +4281,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4302,31 +4314,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4352,14 +4364,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4385,14 +4397,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4418,11 +4430,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4434,7 +4446,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4451,11 +4463,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4467,14 +4479,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4484,11 +4496,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4500,14 +4512,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,14 +4529,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4533,14 +4545,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4550,11 +4562,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4573,7 +4585,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4583,14 +4595,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4606,7 +4618,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4616,11 +4628,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4632,14 +4644,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4649,14 +4661,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4665,14 +4677,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4682,11 +4694,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4715,11 +4727,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>50</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>87</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4731,14 +4743,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4748,11 +4760,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4764,28 +4776,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>50</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4804,7 +4816,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4814,14 +4826,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4830,7 +4842,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4843,15 +4855,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4863,31 +4875,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4896,14 +4908,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4913,14 +4925,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>178</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4929,7 +4941,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4942,15 +4954,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4962,14 +4974,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,14 +4991,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>29</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4995,14 +5007,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,14 +5024,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5028,14 +5040,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5045,14 +5057,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5061,31 +5073,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5094,28 +5106,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5127,14 +5139,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5144,11 +5156,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5160,14 +5172,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5177,11 +5189,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5193,14 +5205,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,14 +5222,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5226,14 +5238,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,11 +5255,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>162</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5266,7 +5278,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5276,14 +5288,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>51</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5292,14 +5304,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5309,14 +5321,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>163</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>318</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5325,14 +5337,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5342,14 +5354,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5358,14 +5370,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5375,14 +5387,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>168</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5391,7 +5403,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5408,14 +5420,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>121</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5424,14 +5436,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5441,11 +5453,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5457,14 +5469,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5474,11 +5486,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5490,14 +5502,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5507,11 +5519,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5523,14 +5535,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5540,14 +5552,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5556,14 +5568,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>329</v>
+        <v>134</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5573,11 +5585,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5596,7 +5608,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>331</v>
+        <v>179</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5606,11 +5618,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5622,14 +5634,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5639,14 +5651,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>334</v>
+        <v>88</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5655,14 +5667,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5672,11 +5684,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>334</v>
+        <v>103</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>335</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5688,14 +5700,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>21</v>
+        <v>336</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5705,11 +5717,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>69</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5721,14 +5733,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5738,11 +5750,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>162</v>
+        <v>339</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5754,14 +5766,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5771,11 +5783,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>100</v>
+        <v>339</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>21</v>
@@ -5787,14 +5799,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5804,11 +5816,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5820,14 +5832,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5837,11 +5849,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>21</v>
@@ -5853,14 +5865,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5870,11 +5882,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>300</v>
+        <v>103</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5886,14 +5898,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5903,11 +5915,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -5919,14 +5931,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5936,11 +5948,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>334</v>
+        <v>103</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>335</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -5952,14 +5964,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5969,11 +5981,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>85</v>
+        <v>304</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>21</v>
@@ -5985,14 +5997,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6002,49 +6014,148 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>250</v>
+        <v>88</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>8098.5249999999996</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>350</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>351</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>134</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>59</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>339</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>340</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
         <v>352</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>77</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>59</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>88</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>353</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>21</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>59</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>251</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>8200.5249999999996</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>354</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>355</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>356</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6708,10 +6819,25 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>12.5000</t>
   </si>
   <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -221,6 +233,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
   </si>
   <si>
@@ -311,9 +332,6 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>33.0000</t>
   </si>
   <si>
@@ -617,9 +635,6 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>ITRANOX 100MG 15 CAPS.</t>
   </si>
   <si>
@@ -665,6 +680,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>56.7600</t>
+  </si>
+  <si>
     <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
   </si>
   <si>
@@ -764,9 +788,6 @@
     <t>RHINOCALM SYRUP 120ML</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
   </si>
   <si>
@@ -854,9 +875,6 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>10.8900</t>
-  </si>
-  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -986,6 +1004,9 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>سلاكه ازن خشب كبيره</t>
+  </si>
+  <si>
     <t>شامبو فاتيكا 180مل</t>
   </si>
   <si>
@@ -1073,7 +1094,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 10:11 PM</t>
+    <t>Thursday, 31 July, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1900,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1889,14 +1910,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1905,14 +1926,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1922,14 +1943,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1938,14 +1959,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1962,7 +1983,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1995,7 +2016,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2028,7 +2049,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2044,7 +2065,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2054,14 +2075,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2070,14 +2091,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2087,11 +2108,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -2103,28 +2124,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -2136,28 +2157,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -2169,14 +2190,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2186,11 +2207,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -2202,14 +2223,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2226,7 +2247,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2259,7 +2280,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2275,7 +2296,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2285,14 +2306,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2301,14 +2322,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2318,11 +2339,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2334,14 +2355,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2351,14 +2372,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2367,14 +2388,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2391,7 +2412,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2407,7 +2428,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2417,11 +2438,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2433,31 +2454,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2466,7 +2487,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2483,11 +2504,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2499,31 +2520,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2539,7 +2560,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2549,11 +2570,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2565,14 +2586,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2605,7 +2626,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2615,11 +2636,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2631,14 +2652,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2648,11 +2669,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2664,14 +2685,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2681,14 +2702,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2704,7 +2725,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2714,14 +2735,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2730,14 +2751,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2747,11 +2768,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2763,14 +2784,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2780,14 +2801,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2796,14 +2817,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2813,14 +2834,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2829,14 +2850,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2869,7 +2890,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2879,14 +2900,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2895,14 +2916,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2919,7 +2940,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2935,7 +2956,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2961,14 +2982,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2978,14 +2999,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3001,7 +3022,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3018,7 +3039,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3034,7 +3055,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3044,7 +3065,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -3100,7 +3121,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3110,14 +3131,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3126,14 +3147,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3143,11 +3164,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3159,14 +3180,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3176,14 +3197,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>160</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3192,14 +3213,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3209,14 +3230,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3225,14 +3246,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3242,14 +3263,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3265,24 +3286,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3291,14 +3312,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3308,11 +3329,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3331,24 +3352,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3357,14 +3378,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3374,14 +3395,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3390,14 +3411,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3407,14 +3428,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3463,7 +3484,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3473,7 +3494,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3496,7 +3517,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3513,7 +3534,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3529,7 +3550,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3539,11 +3560,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3555,14 +3576,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3572,14 +3593,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3588,14 +3609,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3605,14 +3626,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3628,7 +3649,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3645,7 +3666,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3661,7 +3682,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3678,7 +3699,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3694,7 +3715,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3704,14 +3725,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3720,14 +3741,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3737,14 +3758,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3753,14 +3774,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3770,11 +3791,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3786,14 +3807,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3803,14 +3824,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3819,14 +3840,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3836,11 +3857,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3852,14 +3873,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3869,11 +3890,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3885,14 +3906,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3902,14 +3923,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3925,7 +3946,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3935,14 +3956,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3991,7 +4012,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4001,11 +4022,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -4017,7 +4038,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4034,11 +4055,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4050,7 +4071,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4067,11 +4088,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4083,14 +4104,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4100,11 +4121,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4116,31 +4137,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4149,14 +4170,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4166,11 +4187,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4182,7 +4203,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4199,11 +4220,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4215,31 +4236,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4248,14 +4269,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4265,11 +4286,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4281,14 +4302,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4298,14 +4319,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4314,31 +4335,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4347,14 +4368,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4364,11 +4385,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4380,14 +4401,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4397,11 +4418,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4413,31 +4434,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4446,14 +4467,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4463,11 +4484,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4479,14 +4500,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4496,14 +4517,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4512,14 +4533,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4529,11 +4550,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4545,14 +4566,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4562,11 +4583,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4578,14 +4599,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4595,14 +4616,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4611,14 +4632,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4628,11 +4649,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4651,7 +4672,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4661,14 +4682,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>266</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4684,7 +4705,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4701,7 +4722,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4717,7 +4738,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4727,11 +4748,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4743,14 +4764,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4760,14 +4781,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4783,7 +4804,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4793,11 +4814,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4809,7 +4830,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4826,11 +4847,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4842,7 +4863,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4855,15 +4876,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4875,14 +4896,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4892,14 +4913,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4915,7 +4936,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4925,11 +4946,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4941,7 +4962,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4954,15 +4975,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4974,14 +4995,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4991,14 +5012,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5007,7 +5028,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5024,11 +5045,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -5040,31 +5061,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5073,14 +5094,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5090,14 +5111,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5106,7 +5127,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5123,11 +5144,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5139,31 +5160,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>71</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5172,31 +5193,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5205,28 +5226,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>180</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5238,28 +5259,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5271,31 +5292,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>88</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>144</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5304,28 +5325,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5337,28 +5358,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>51</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5370,31 +5391,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>321</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>322</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5410,24 +5431,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>312</v>
+        <v>169</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5436,28 +5457,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5469,7 +5490,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5482,18 +5503,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>123</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5502,31 +5523,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>124</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5535,28 +5556,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5568,28 +5589,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>269</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5601,28 +5622,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5634,31 +5655,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>332</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5667,28 +5688,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>334</v>
+        <v>31</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5700,28 +5721,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>336</v>
+        <v>140</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5733,28 +5754,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>339</v>
+        <v>75</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5766,31 +5787,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>342</v>
+        <v>147</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>339</v>
+        <v>95</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5799,28 +5820,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5832,28 +5853,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>163</v>
+        <v>344</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>21</v>
@@ -5872,21 +5893,21 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>346</v>
+        <v>18</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>180</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5898,28 +5919,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>50</v>
+        <v>346</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -5931,28 +5952,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -5964,28 +5985,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>21</v>
@@ -5997,28 +6018,28 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>258</v>
+        <v>353</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>21</v>
@@ -6030,28 +6051,28 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>339</v>
+        <v>54</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>21</v>
@@ -6063,28 +6084,28 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>21</v>
@@ -6096,7 +6117,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6109,53 +6130,185 @@
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>202</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>8200.5249999999996</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
-        <v>354</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
-        <v>355</v>
-      </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
-        <v>356</v>
-      </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>357</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>265</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>63</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>95</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>358</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>140</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>63</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>346</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>347</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>359</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>84</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>63</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>95</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>360</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>21</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>63</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>75</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="P145" s="13">
+        <v>8328.1749999999993</v>
+      </c>
+      <c r="Q145" s="13"/>
+    </row>
+    <row r="146" ht="16.5" customHeight="1">
+      <c t="s" r="A146" s="14">
+        <v>361</v>
+      </c>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c t="s" r="G146" s="15">
+        <v>362</v>
+      </c>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c t="s" r="K146" s="17">
+        <v>363</v>
+      </c>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="702">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6834,10 +6987,30 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="K146:Q146"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -275,681 +275,687 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>CO- AVAZIR EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COFDIETIN  CAPS</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>COMPLETE HAIR OIL 120 ML</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CYNCHOLINE 20CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECANCIT S.R 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DERMOCALM TOPICAL LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DERMOFIX 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EMMYROSA HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>FANGRARE SHOWER GEL 200 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLEBOTON 3 AMP.</t>
+  </si>
+  <si>
+    <t>67.8300</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>HAIRTONIC 60 CAPS.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 40MG 50 TABLETS</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>56.7600</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NATRY SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>NEBULA HAIR TONIC</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>399.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RHINOCALM SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>-49.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>TERBIN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TREE OF LIFE SERUM</t>
+  </si>
+  <si>
+    <t>269.00</t>
+  </si>
+  <si>
+    <t>269.0000</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VACATION NIACINAMIDE 10%SERUM</t>
+  </si>
+  <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>475.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>VITALITA SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
     <t>15:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CLATEX 75MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>CO- AVAZIR EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COFDIETIN  CAPS</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>COMPLETE HAIR OIL 120 ML</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CYNCHOLINE 20CAPS.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>DAKTACORT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECANCIT S.R 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DERMOCALM TOPICAL LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DERMOFIX 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>EMMYROSA HAIR LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>225.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>FANGRARE SHOWER GEL 200 ML</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>FLEBOTON 3 AMP.</t>
-  </si>
-  <si>
-    <t>67.8300</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>HAIRTONIC 60 CAPS.</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>26.4000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 40MG 50 TABLETS</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 15 CAPS.</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>KETOPREK 75 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>56.7600</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>NATRY SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>NEBULA HAIR TONIC</t>
-  </si>
-  <si>
-    <t>399.00</t>
-  </si>
-  <si>
-    <t>399.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RHINOCALM SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>220.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>-49.5000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TERBIN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TREE OF LIFE SERUM</t>
-  </si>
-  <si>
-    <t>269.00</t>
-  </si>
-  <si>
-    <t>269.0000</t>
-  </si>
-  <si>
-    <t>TRYPTIZOL 25MG 30 TAB</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>VACATION NIACINAMIDE 10%SERUM</t>
-  </si>
-  <si>
-    <t>475.00</t>
-  </si>
-  <si>
-    <t>475.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>VITALITA SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>ZADOGLOBIN 20 CAPS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>44:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -992,9 +998,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>31:0</t>
   </si>
   <si>
@@ -1058,9 +1061,6 @@
     <t>كحول 70%</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 125 مل</t>
   </si>
   <si>
@@ -1094,7 +1094,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 10:14 PM</t>
+    <t>Thursday, 31 July, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2445,7 +2445,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -3913,7 +3913,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3923,14 +3923,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3939,14 +3939,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3956,11 +3956,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3979,7 +3979,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3989,14 +3989,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4005,14 +4005,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -4045,7 +4045,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4055,14 +4055,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4071,14 +4071,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4088,14 +4088,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4104,14 +4104,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4121,11 +4121,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4137,14 +4137,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4154,14 +4154,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4170,14 +4170,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4187,14 +4187,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4220,11 +4220,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4249,15 +4249,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4269,28 +4269,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4309,7 +4309,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4319,11 +4319,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4335,14 +4335,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4352,14 +4352,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4375,7 +4375,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4385,14 +4385,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4401,14 +4401,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4418,14 +4418,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4441,24 +4441,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4474,24 +4474,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4507,7 +4507,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4517,14 +4517,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>136</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4540,7 +4540,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4550,14 +4550,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4573,7 +4573,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4583,11 +4583,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4616,11 +4616,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4632,14 +4632,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4672,7 +4672,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4682,11 +4682,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>118</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4698,14 +4698,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4715,14 +4715,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4731,14 +4731,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4748,14 +4748,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4771,7 +4771,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4781,14 +4781,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>273</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4797,14 +4797,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4814,14 +4814,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>72</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4830,14 +4830,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4847,11 +4847,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4863,14 +4863,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4880,11 +4880,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4903,7 +4903,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4913,11 +4913,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4946,11 +4946,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>235</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4969,21 +4969,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4995,31 +4995,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5028,14 +5028,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5045,14 +5045,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5074,15 +5074,15 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5094,31 +5094,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5127,14 +5127,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5144,14 +5144,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5160,14 +5160,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5177,14 +5177,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5193,14 +5193,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5210,14 +5210,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>135</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5226,14 +5226,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5243,14 +5243,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5259,28 +5259,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5292,14 +5292,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5309,11 +5309,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5325,14 +5325,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>109</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>186</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5365,7 +5365,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5375,11 +5375,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>109</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5391,14 +5391,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>321</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5408,14 +5408,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5424,14 +5424,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5441,14 +5441,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5457,14 +5457,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5474,11 +5474,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5490,14 +5490,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5507,14 +5507,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>95</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>328</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5540,14 +5540,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>140</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5556,14 +5556,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5573,14 +5573,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>186</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5596,7 +5596,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5606,11 +5606,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5629,7 +5629,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5639,11 +5639,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5662,7 +5662,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5695,7 +5695,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5705,11 +5705,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5728,7 +5728,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5738,11 +5738,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>276</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5761,7 +5761,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5771,11 +5771,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5794,7 +5794,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5804,14 +5804,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5820,14 +5820,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>341</v>
+        <v>147</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5837,14 +5837,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>186</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5853,14 +5853,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5870,11 +5870,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>344</v>
+        <v>109</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>21</v>
@@ -5886,14 +5886,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>18</v>
+        <v>344</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5903,11 +5903,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>347</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5919,14 +5919,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>349</v>
+        <v>18</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5936,11 +5936,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -5952,14 +5952,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5969,11 +5969,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -5985,14 +5985,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>341</v>
+        <v>21</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6002,11 +6002,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>21</v>
@@ -6018,14 +6018,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6035,11 +6035,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>21</v>
@@ -6051,14 +6051,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>84</v>
+        <v>353</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6068,11 +6068,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>21</v>
@@ -6084,14 +6084,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6101,11 +6101,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>21</v>
@@ -6117,14 +6117,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6134,11 +6134,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>310</v>
+        <v>109</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>21</v>
@@ -6150,14 +6150,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6167,11 +6167,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>55</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>21</v>
@@ -6183,14 +6183,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6200,11 +6200,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>346</v>
+        <v>95</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>347</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>21</v>
@@ -6216,14 +6216,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6233,11 +6233,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>95</v>
+        <v>347</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>55</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>21</v>
@@ -6249,14 +6249,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6266,49 +6266,82 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>360</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>21</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>63</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>75</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
         <v>76</v>
       </c>
-      <c t="s" r="Q144" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="145" ht="24.75" customHeight="1">
-      <c r="P145" s="13">
-        <v>8328.1749999999993</v>
-      </c>
-      <c r="Q145" s="13"/>
-    </row>
-    <row r="146" ht="16.5" customHeight="1">
-      <c t="s" r="A146" s="14">
+      <c t="s" r="Q145" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="P146" s="13">
+        <v>8377.1749999999993</v>
+      </c>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="14">
         <v>361</v>
       </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c t="s" r="G146" s="15">
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c t="s" r="G147" s="15">
         <v>362</v>
       </c>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="16"/>
-      <c t="s" r="K146" s="17">
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c t="s" r="K147" s="17">
         <v>363</v>
       </c>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-      <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="17"/>
-      <c r="Q146" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="702">
+  <mergeCells count="707">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7007,10 +7040,15 @@
     <mergeCell ref="H144:K144"/>
     <mergeCell ref="L144:M144"/>
     <mergeCell ref="N144:O144"/>
-    <mergeCell ref="P145:Q145"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="K146:Q146"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="K147:Q147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -1094,7 +1094,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 10:18 PM</t>
+    <t>Thursday, 31 July, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -1094,7 +1094,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 10:21 PM</t>
+    <t>Thursday, 31 July, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-31_00-00.xlsx
+++ b/DaySale_2025-07-31_00-00.xlsx
@@ -272,795 +272,801 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>CO- AVAZIR EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COFDIETIN  CAPS</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>COMPLETE HAIR OIL 120 ML</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CYNCHOLINE 20CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECANCIT S.R 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DERMOCALM TOPICAL LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DERMOFIX 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EMMYROSA HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>FANGRARE SHOWER GEL 200 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLEBOTON 3 AMP.</t>
+  </si>
+  <si>
+    <t>67.8300</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>HAIRTONIC 60 CAPS.</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 40MG 50 TABLETS</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>56.7600</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>NATRY SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>NEBULA HAIR TONIC</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>399.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RHINOCALM SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>-49.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>TERBIN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TREE OF LIFE SERUM</t>
+  </si>
+  <si>
+    <t>269.00</t>
+  </si>
+  <si>
+    <t>269.0000</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VACATION NIACINAMIDE 10%SERUM</t>
+  </si>
+  <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>475.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>VITALITA SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>71:0</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>ديتول وسط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريست سبورت </t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب كبيره</t>
+  </si>
+  <si>
+    <t>شامبو فاتيكا 180مل</t>
+  </si>
+  <si>
+    <t>شامبو كلير حريمي 180مل</t>
+  </si>
+  <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>كحول 70%</t>
+  </si>
+  <si>
     <t>14:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CLATEX 75MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>CO- AVAZIR EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COFDIETIN  CAPS</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>COMPLETE HAIR OIL 120 ML</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CYNCHOLINE 20CAPS.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>DAKTACORT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECANCIT S.R 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DERMOCALM TOPICAL LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DERMOFIX 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>EMMYROSA HAIR LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>225.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>FANGRARE SHOWER GEL 200 ML</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERBLOD ADVANCE  SYRUP </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>FLEBOTON 3 AMP.</t>
-  </si>
-  <si>
-    <t>67.8300</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>HAIRTONIC 60 CAPS.</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>26.4000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 40MG 50 TABLETS</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>ITRANOX 100MG 15 CAPS.</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>KETOPREK 75 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGIC HAIR SHAMPOO 250  ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>56.7600</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>NATRY SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>NEBULA HAIR TONIC</t>
-  </si>
-  <si>
-    <t>399.00</t>
-  </si>
-  <si>
-    <t>399.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RHINOCALM SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>220.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>-49.5000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TERBIN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TREE OF LIFE SERUM</t>
-  </si>
-  <si>
-    <t>269.00</t>
-  </si>
-  <si>
-    <t>269.0000</t>
-  </si>
-  <si>
-    <t>TRYPTIZOL 25MG 30 TAB</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>VACATION NIACINAMIDE 10%SERUM</t>
-  </si>
-  <si>
-    <t>475.00</t>
-  </si>
-  <si>
-    <t>475.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>VITALITA SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>ZADOGLOBIN 20 CAPS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>44:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>71:0</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>ديتول وسط</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ريست سبورت </t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سلاكه ازن خشب كبيره</t>
-  </si>
-  <si>
-    <t>شامبو فاتيكا 180مل</t>
-  </si>
-  <si>
-    <t>شامبو كلير حريمي 180مل</t>
-  </si>
-  <si>
-    <t>شامبو كلير للرجال 180مل</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>كحول 70%</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 125 مل</t>
   </si>
   <si>
@@ -1094,7 +1100,7 @@
     <t>نيفيا سوفت كريم 50 مل</t>
   </si>
   <si>
-    <t>Thursday, 31 July, 2025 10:26 PM</t>
+    <t>Thursday, 31 July, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2445,7 +2451,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2461,7 +2467,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2471,14 +2477,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2487,14 +2493,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2504,14 +2510,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2520,7 +2526,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2533,15 +2539,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2553,7 +2559,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2566,15 +2572,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2586,14 +2592,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2610,7 +2616,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2636,14 +2642,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2652,14 +2658,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2685,14 +2691,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2702,14 +2708,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2718,14 +2724,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2735,14 +2741,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2751,14 +2757,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2768,11 +2774,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2784,14 +2790,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2808,7 +2814,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2841,7 +2847,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2874,7 +2880,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2890,7 +2896,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2900,11 +2906,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2916,7 +2922,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2933,11 +2939,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2966,14 +2972,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2982,14 +2988,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2999,14 +3005,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3022,7 +3028,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3032,14 +3038,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3048,14 +3054,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3065,11 +3071,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3098,14 +3104,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3114,14 +3120,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3131,14 +3137,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3164,14 +3170,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3180,7 +3186,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3197,11 +3203,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3230,11 +3236,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3246,14 +3252,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3270,7 +3276,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>166</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3296,14 +3302,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3319,7 +3325,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3329,14 +3335,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3345,28 +3351,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3378,28 +3384,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3411,14 +3417,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3461,14 +3467,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3494,14 +3500,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3527,14 +3533,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3543,14 +3549,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3560,14 +3566,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3593,11 +3599,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3609,14 +3615,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3626,11 +3632,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3642,14 +3648,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3692,11 +3698,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3708,14 +3714,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3725,14 +3731,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3741,14 +3747,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3758,14 +3764,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3774,14 +3780,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3791,14 +3797,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3807,14 +3813,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3824,14 +3830,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3840,14 +3846,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3857,14 +3863,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3873,14 +3879,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3890,11 +3896,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3906,14 +3912,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3923,14 +3929,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3939,14 +3945,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3956,14 +3962,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3989,11 +3995,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4005,14 +4011,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4045,7 +4051,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4055,11 +4061,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -4071,14 +4077,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4088,14 +4094,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4111,7 +4117,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4128,7 +4134,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4144,7 +4150,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4177,7 +4183,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4187,14 +4193,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4203,14 +4209,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4220,14 +4226,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4253,11 +4259,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4282,15 +4288,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4302,28 +4308,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4352,11 +4358,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4375,7 +4381,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4385,14 +4391,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4401,14 +4407,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4418,14 +4424,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4434,14 +4440,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4451,14 +4457,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4467,31 +4473,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4500,31 +4506,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4533,14 +4539,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4550,14 +4556,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4566,14 +4572,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4583,14 +4589,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4599,14 +4605,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4616,11 +4622,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4649,11 +4655,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4665,14 +4671,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4682,11 +4688,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4698,14 +4704,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4715,11 +4721,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4731,14 +4737,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4748,14 +4754,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4764,14 +4770,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4781,14 +4787,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4804,7 +4810,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4814,14 +4820,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>274</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4830,14 +4836,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4847,14 +4853,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4863,14 +4869,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4880,11 +4886,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4896,14 +4902,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4913,11 +4919,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4936,7 +4942,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4946,11 +4952,11 @@
    